--- a/data/final_part1/final.xlsx
+++ b/data/final_part1/final.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -551,7 +551,7 @@
         <v>1633</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3380558504066861</v>
+        <v>3.304613628309347</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -630,7 +630,7 @@
         <v>2838</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3308313750509859</v>
+        <v>3.383702712593808</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -709,7 +709,7 @@
         <v>3444</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3601367678162051</v>
+        <v>3.084465904090849</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -788,7 +788,7 @@
         <v>6775</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2840455001155819</v>
+        <v>4.005588000716362</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>
@@ -867,7 +867,7 @@
         <v>8520</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2640154107037777</v>
+        <v>4.348464419281354</v>
       </c>
       <c r="E6" t="n">
         <v>27</v>
@@ -946,7 +946,7 @@
         <v>8849</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2605177048099616</v>
+        <v>4.414499673249055</v>
       </c>
       <c r="E7" t="n">
         <v>28</v>
@@ -1025,7 +1025,7 @@
         <v>10050</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2684761067292989</v>
+        <v>4.26708109146372</v>
       </c>
       <c r="E8" t="n">
         <v>32</v>
@@ -1104,7 +1104,7 @@
         <v>10362</v>
       </c>
       <c r="D9" t="n">
-        <v>0.287175677011738</v>
+        <v>3.956866402304801</v>
       </c>
       <c r="E9" t="n">
         <v>33</v>
@@ -1183,7 +1183,7 @@
         <v>12193</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4065814042645653</v>
+        <v>2.706094556894962</v>
       </c>
       <c r="E10" t="n">
         <v>39</v>
@@ -1262,7 +1262,7 @@
         <v>13653</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2896831157820023</v>
+        <v>3.918691275718358</v>
       </c>
       <c r="E11" t="n">
         <v>44</v>
@@ -1341,7 +1341,7 @@
         <v>14271</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3370209541636917</v>
+        <v>3.315713222375906</v>
       </c>
       <c r="E12" t="n">
         <v>46</v>
@@ -1420,7 +1420,7 @@
         <v>4703</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6393610063276275</v>
+        <v>1.68136675199924</v>
       </c>
       <c r="E13" t="n">
         <v>14</v>
@@ -1499,7 +1499,7 @@
         <v>8016</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2739616581005732</v>
+        <v>4.171111730464272</v>
       </c>
       <c r="E14" t="n">
         <v>25</v>
@@ -1578,7 +1578,7 @@
         <v>9164</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3239000747702949</v>
+        <v>3.463260588389077</v>
       </c>
       <c r="E15" t="n">
         <v>29</v>
@@ -1657,7 +1657,7 @@
         <v>10090</v>
       </c>
       <c r="D16" t="n">
-        <v>0.286896644594737</v>
+        <v>3.96116101938157</v>
       </c>
       <c r="E16" t="n">
         <v>32</v>
@@ -1736,7 +1736,7 @@
         <v>12774</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2645523363027643</v>
+        <v>4.338503262588237</v>
       </c>
       <c r="E17" t="n">
         <v>41</v>
@@ -1815,7 +1815,7 @@
         <v>13339</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2604455219263284</v>
+        <v>4.415883741379729</v>
       </c>
       <c r="E18" t="n">
         <v>43</v>
@@ -1894,7 +1894,7 @@
         <v>766</v>
       </c>
       <c r="D19" t="n">
-        <v>0.475512745361711</v>
+        <v>2.290576920427477</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1973,7 +1973,7 @@
         <v>2856</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3274454919369778</v>
+        <v>3.422099899242247</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -2052,7 +2052,7 @@
         <v>6422</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3186482297322769</v>
+        <v>3.526102573315609</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
@@ -2131,7 +2131,7 @@
         <v>7980</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3271085768785525</v>
+        <v>3.425968821736939</v>
       </c>
       <c r="E22" t="n">
         <v>25</v>
@@ -2210,7 +2210,7 @@
         <v>9135</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4517265878212524</v>
+        <v>2.418542069058025</v>
       </c>
       <c r="E23" t="n">
         <v>29</v>
@@ -2289,7 +2289,7 @@
         <v>9442</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5051883325873538</v>
+        <v>2.148960633849292</v>
       </c>
       <c r="E24" t="n">
         <v>30</v>
@@ -2368,7 +2368,7 @@
         <v>9725</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5176557507919505</v>
+        <v>2.094625822566313</v>
       </c>
       <c r="E25" t="n">
         <v>31</v>
@@ -2447,7 +2447,7 @@
         <v>12751</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3202115587445647</v>
+        <v>3.50715694955371</v>
       </c>
       <c r="E26" t="n">
         <v>41</v>
@@ -2526,7 +2526,7 @@
         <v>757</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4469857540364784</v>
+        <v>2.44579962998135</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -2605,7 +2605,7 @@
         <v>4657</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4434948184072363</v>
+        <v>2.46627226442661</v>
       </c>
       <c r="E28" t="n">
         <v>14</v>
@@ -2684,7 +2684,7 @@
         <v>5878</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2527960023987501</v>
+        <v>4.567685946814548</v>
       </c>
       <c r="E29" t="n">
         <v>18</v>
@@ -2763,7 +2763,7 @@
         <v>7663</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4127369337188959</v>
+        <v>2.662873051249372</v>
       </c>
       <c r="E30" t="n">
         <v>24</v>
@@ -2842,7 +2842,7 @@
         <v>8888</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4920497886980261</v>
+        <v>2.209406500032472</v>
       </c>
       <c r="E31" t="n">
         <v>28</v>
@@ -2921,7 +2921,7 @@
         <v>9225</v>
       </c>
       <c r="D32" t="n">
-        <v>0.390295833664191</v>
+        <v>2.827604591346836</v>
       </c>
       <c r="E32" t="n">
         <v>29</v>
@@ -3000,7 +3000,7 @@
         <v>10676</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4960600713564971</v>
+        <v>2.190593761715072</v>
       </c>
       <c r="E33" t="n">
         <v>34</v>
@@ -3079,7 +3079,7 @@
         <v>11271</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3039663787842027</v>
+        <v>3.714651784409614</v>
       </c>
       <c r="E34" t="n">
         <v>36</v>
@@ -3158,7 +3158,7 @@
         <v>13960</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3299960689458485</v>
+        <v>3.393094352652105</v>
       </c>
       <c r="E35" t="n">
         <v>45</v>
@@ -3237,7 +3237,7 @@
         <v>235</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2583828572071633</v>
+        <v>4.455807006252699</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>1932</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3706922255152871</v>
+        <v>2.989364702727159</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3395,7 +3395,7 @@
         <v>2230</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3829348586068114</v>
+        <v>2.886225811113</v>
       </c>
       <c r="E38" t="n">
         <v>6</v>
@@ -3474,7 +3474,7 @@
         <v>2848</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3542644052128241</v>
+        <v>3.14007000869097</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3553,7 +3553,7 @@
         <v>4660</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3690563559558222</v>
+        <v>3.003713456310634</v>
       </c>
       <c r="E40" t="n">
         <v>14</v>
@@ -3632,7 +3632,7 @@
         <v>10059</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2723143687657423</v>
+        <v>4.199470882865255</v>
       </c>
       <c r="E41" t="n">
         <v>32</v>
@@ -3711,7 +3711,7 @@
         <v>12113</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3910164352651607</v>
+        <v>2.821995012650503</v>
       </c>
       <c r="E42" t="n">
         <v>39</v>
@@ -3790,7 +3790,7 @@
         <v>12736</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3082323525079666</v>
+        <v>3.657801851045766</v>
       </c>
       <c r="E43" t="n">
         <v>41</v>
@@ -3869,7 +3869,7 @@
         <v>13916</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3087544625505218</v>
+        <v>3.650964344926612</v>
       </c>
       <c r="E44" t="n">
         <v>45</v>
@@ -3948,7 +3948,7 @@
         <v>1362</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2601171447934838</v>
+        <v>4.422191247404841</v>
       </c>
       <c r="E45" t="n">
         <v>3</v>
@@ -4027,7 +4027,7 @@
         <v>2585</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3233519482601234</v>
+        <v>3.469713460639301</v>
       </c>
       <c r="E46" t="n">
         <v>7</v>
@@ -4106,7 +4106,7 @@
         <v>5550</v>
       </c>
       <c r="D47" t="n">
-        <v>0.292184839237925</v>
+        <v>3.88133611018551</v>
       </c>
       <c r="E47" t="n">
         <v>17</v>
@@ -4185,7 +4185,7 @@
         <v>6184</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5757376172611396</v>
+        <v>1.874332606938224</v>
       </c>
       <c r="E48" t="n">
         <v>19</v>
@@ -4264,7 +4264,7 @@
         <v>6466</v>
       </c>
       <c r="D49" t="n">
-        <v>0.525941419539102</v>
+        <v>2.060032489628286</v>
       </c>
       <c r="E49" t="n">
         <v>20</v>
@@ -4343,7 +4343,7 @@
         <v>9207</v>
       </c>
       <c r="D50" t="n">
-        <v>0.624494195574104</v>
+        <v>1.722747147825685</v>
       </c>
       <c r="E50" t="n">
         <v>29</v>
@@ -4422,7 +4422,7 @@
         <v>10370</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5314544899909621</v>
+        <v>2.037650743877782</v>
       </c>
       <c r="E51" t="n">
         <v>33</v>
@@ -4501,7 +4501,7 @@
         <v>11857</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5963604089666588</v>
+        <v>1.807020224931555</v>
       </c>
       <c r="E52" t="n">
         <v>38</v>
@@ -4580,7 +4580,7 @@
         <v>175</v>
       </c>
       <c r="D53" t="n">
-        <v>0.272650121063922</v>
+        <v>4.193659203458453</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -4659,7 +4659,7 @@
         <v>3144</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2538111855836258</v>
+        <v>4.546937732217636</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4738,7 +4738,7 @@
         <v>4036</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2975695700706142</v>
+        <v>3.803319151784328</v>
       </c>
       <c r="E55" t="n">
         <v>12</v>
@@ -4817,7 +4817,7 @@
         <v>6759</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2665863105243505</v>
+        <v>4.3011818793551</v>
       </c>
       <c r="E56" t="n">
         <v>21</v>
@@ -4896,7 +4896,7 @@
         <v>7391</v>
       </c>
       <c r="D57" t="n">
-        <v>0.291428983751941</v>
+        <v>3.892546454773201</v>
       </c>
       <c r="E57" t="n">
         <v>23</v>
@@ -4975,7 +4975,7 @@
         <v>7662</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2724578256948757</v>
+        <v>4.196985741027706</v>
       </c>
       <c r="E58" t="n">
         <v>24</v>
@@ -5054,7 +5054,7 @@
         <v>3767</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2773819331573947</v>
+        <v>4.113444908108298</v>
       </c>
       <c r="E59" t="n">
         <v>11</v>
@@ -5133,7 +5133,7 @@
         <v>6165</v>
       </c>
       <c r="D60" t="n">
-        <v>0.252825471263173</v>
+        <v>4.567080978058105</v>
       </c>
       <c r="E60" t="n">
         <v>19</v>
@@ -5212,7 +5212,7 @@
         <v>6428</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2577150140117351</v>
+        <v>4.468889524833182</v>
       </c>
       <c r="E61" t="n">
         <v>20</v>
@@ -5291,7 +5291,7 @@
         <v>6792</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2551872234973441</v>
+        <v>4.519115554676565</v>
       </c>
       <c r="E62" t="n">
         <v>21</v>
@@ -5370,7 +5370,7 @@
         <v>9738</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2537309034610698</v>
+        <v>4.54857161589837</v>
       </c>
       <c r="E63" t="n">
         <v>31</v>
@@ -5449,7 +5449,7 @@
         <v>10051</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2735210753592841</v>
+        <v>4.17865877004585</v>
       </c>
       <c r="E64" t="n">
         <v>32</v>
@@ -5528,7 +5528,7 @@
         <v>13331</v>
       </c>
       <c r="D65" t="n">
-        <v>0.431570315679239</v>
+        <v>2.538900802118568</v>
       </c>
       <c r="E65" t="n">
         <v>43</v>
@@ -5607,7 +5607,7 @@
         <v>13612</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4437169647534889</v>
+        <v>2.464959144186635</v>
       </c>
       <c r="E66" t="n">
         <v>44</v>
@@ -5686,7 +5686,7 @@
         <v>160</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3243951401325687</v>
+        <v>3.457453168660893</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>1080</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3635347489635964</v>
+        <v>3.053190512672506</v>
       </c>
       <c r="E68" t="n">
         <v>2</v>
@@ -5844,7 +5844,7 @@
         <v>2220</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3134817685891919</v>
+        <v>3.590210022025685</v>
       </c>
       <c r="E69" t="n">
         <v>6</v>
@@ -5923,7 +5923,7 @@
         <v>5610</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2578786685658178</v>
+        <v>4.46567650982204</v>
       </c>
       <c r="E70" t="n">
         <v>17</v>
@@ -6002,7 +6002,7 @@
         <v>12728</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2654513206856332</v>
+        <v>4.321927646268733</v>
       </c>
       <c r="E71" t="n">
         <v>41</v>
@@ -6081,7 +6081,7 @@
         <v>13643</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2801402650595042</v>
+        <v>4.068096068756454</v>
       </c>
       <c r="E72" t="n">
         <v>44</v>
@@ -6160,7 +6160,7 @@
         <v>785</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3361138153381315</v>
+        <v>3.325504683201965</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
@@ -6239,7 +6239,7 @@
         <v>1914</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3065203193147254</v>
+        <v>3.680404870993542</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
@@ -6318,7 +6318,7 @@
         <v>2237</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2704536161439228</v>
+        <v>4.231975980434832</v>
       </c>
       <c r="E75" t="n">
         <v>6</v>
@@ -6397,7 +6397,7 @@
         <v>2614</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3260274341521892</v>
+        <v>3.438443843221838</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6476,7 +6476,7 @@
         <v>4374</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2579416912677226</v>
+        <v>4.464440431522638</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6555,7 +6555,7 @@
         <v>5239</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2687009037426642</v>
+        <v>4.263060918776662</v>
       </c>
       <c r="E78" t="n">
         <v>16</v>
@@ -6634,7 +6634,7 @@
         <v>5534</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2761952857441673</v>
+        <v>4.133269211180504</v>
       </c>
       <c r="E79" t="n">
         <v>17</v>
@@ -6713,7 +6713,7 @@
         <v>9801</v>
       </c>
       <c r="D80" t="n">
-        <v>0.2756661063008294</v>
+        <v>4.142171981377887</v>
       </c>
       <c r="E80" t="n">
         <v>31</v>
@@ -6792,7 +6792,7 @@
         <v>11566</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2598853532715425</v>
+        <v>4.426654464283852</v>
       </c>
       <c r="E81" t="n">
         <v>37</v>
@@ -6871,7 +6871,7 @@
         <v>14237</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2541099606049556</v>
+        <v>4.540867501933863</v>
       </c>
       <c r="E82" t="n">
         <v>46</v>
@@ -6950,7 +6950,7 @@
         <v>829</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1325121031753838</v>
+        <v>3.452691233468547</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         <v>2001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.135267583691158</v>
+        <v>3.418778381270558</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -7108,7 +7108,7 @@
         <v>2617</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1287985397381511</v>
+        <v>3.499426102987075</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7187,7 +7187,7 @@
         <v>2940</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1326109313529793</v>
+        <v>3.451463799071973</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -7266,7 +7266,7 @@
         <v>4091</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1247766969237493</v>
+        <v>3.551424637754419</v>
       </c>
       <c r="E87" t="n">
         <v>12</v>
@@ -7345,7 +7345,7 @@
         <v>5612</v>
       </c>
       <c r="D88" t="n">
-        <v>0.123926305676492</v>
+        <v>3.562609304953328</v>
       </c>
       <c r="E88" t="n">
         <v>17</v>
@@ -7424,7 +7424,7 @@
         <v>6501</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1388500592894898</v>
+        <v>3.375628357355828</v>
       </c>
       <c r="E89" t="n">
         <v>20</v>
@@ -7503,7 +7503,7 @@
         <v>7164</v>
       </c>
       <c r="D90" t="n">
-        <v>0.125010418439851</v>
+        <v>3.548362414520684</v>
       </c>
       <c r="E90" t="n">
         <v>22</v>
@@ -7582,7 +7582,7 @@
         <v>9222</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1351362419798716</v>
+        <v>3.420380393859394</v>
       </c>
       <c r="E91" t="n">
         <v>29</v>
@@ -7661,7 +7661,7 @@
         <v>2015</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1533759947722869</v>
+        <v>3.210838329828916</v>
       </c>
       <c r="E92" t="n">
         <v>5</v>
@@ -7740,7 +7740,7 @@
         <v>2299</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1722408465481406</v>
+        <v>3.018456574887589</v>
       </c>
       <c r="E93" t="n">
         <v>6</v>
@@ -7819,7 +7819,7 @@
         <v>3222</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1938085559595115</v>
+        <v>2.823780757754141</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -7898,7 +7898,7 @@
         <v>8311</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1961612812569204</v>
+        <v>2.803978290082462</v>
       </c>
       <c r="E95" t="n">
         <v>26</v>
@@ -7977,7 +7977,7 @@
         <v>1121</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1597598868084945</v>
+        <v>3.143179935344964</v>
       </c>
       <c r="E96" t="n">
         <v>2</v>
@@ -8056,7 +8056,7 @@
         <v>2626</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1408661157107511</v>
+        <v>3.35180016423233</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8135,7 +8135,7 @@
         <v>3829</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1494778114439833</v>
+        <v>3.253533461192405</v>
       </c>
       <c r="E98" t="n">
         <v>11</v>
@@ -8214,7 +8214,7 @@
         <v>5641</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1317559177754249</v>
+        <v>3.462110669605244</v>
       </c>
       <c r="E99" t="n">
         <v>17</v>
@@ -8293,7 +8293,7 @@
         <v>7121</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1296898839492208</v>
+        <v>3.488098616360238</v>
       </c>
       <c r="E100" t="n">
         <v>22</v>
@@ -8372,7 +8372,7 @@
         <v>8643</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1251883430458526</v>
+        <v>3.546034630560006</v>
       </c>
       <c r="E101" t="n">
         <v>27</v>
@@ -8451,7 +8451,7 @@
         <v>10440</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1309976322092615</v>
+        <v>3.47160574540579</v>
       </c>
       <c r="E102" t="n">
         <v>33</v>
@@ -8530,7 +8530,7 @@
         <v>11357</v>
       </c>
       <c r="D103" t="n">
-        <v>0.132458370058963</v>
+        <v>3.453358942868838</v>
       </c>
       <c r="E103" t="n">
         <v>36</v>
@@ -8609,7 +8609,7 @@
         <v>12511</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1478157847952733</v>
+        <v>3.272067767600744</v>
       </c>
       <c r="E104" t="n">
         <v>40</v>
@@ -8688,7 +8688,7 @@
         <v>13431</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1237358022261633</v>
+        <v>3.565124131545391</v>
       </c>
       <c r="E105" t="n">
         <v>43</v>
@@ -8767,7 +8767,7 @@
         <v>258</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1483552515413362</v>
+        <v>3.266029798580686</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -8846,7 +8846,7 @@
         <v>840</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1362788285644393</v>
+        <v>3.406491808489423</v>
       </c>
       <c r="E107" t="n">
         <v>1</v>
@@ -8925,7 +8925,7 @@
         <v>3241</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1350163999068591</v>
+        <v>3.42184339461662</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9004,7 +9004,7 @@
         <v>5008</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1608746021770927</v>
+        <v>3.131643565220467</v>
       </c>
       <c r="E109" t="n">
         <v>15</v>
@@ -9083,7 +9083,7 @@
         <v>5272</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1433972929172751</v>
+        <v>3.322334830996808</v>
       </c>
       <c r="E110" t="n">
         <v>16</v>
@@ -9162,7 +9162,7 @@
         <v>5630</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1513354604163602</v>
+        <v>3.233053266116257</v>
       </c>
       <c r="E111" t="n">
         <v>17</v>
@@ -9241,7 +9241,7 @@
         <v>8635</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1456006206240663</v>
+        <v>3.297085807934588</v>
       </c>
       <c r="E112" t="n">
         <v>27</v>
@@ -9320,7 +9320,7 @@
         <v>9824</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1533950589793581</v>
+        <v>3.210632153413293</v>
       </c>
       <c r="E113" t="n">
         <v>31</v>
@@ -9399,7 +9399,7 @@
         <v>13721</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1354717756968712</v>
+        <v>3.416290639126766</v>
       </c>
       <c r="E114" t="n">
         <v>44</v>
@@ -9478,7 +9478,7 @@
         <v>7437</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1366449059747748</v>
+        <v>3.402064770084808</v>
       </c>
       <c r="E115" t="n">
         <v>23</v>
@@ -9557,7 +9557,7 @@
         <v>9532</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1486435659757576</v>
+        <v>3.262811553772631</v>
       </c>
       <c r="E116" t="n">
         <v>30</v>
@@ -9636,7 +9636,7 @@
         <v>10397</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1423873603523267</v>
+        <v>3.334031900444699</v>
       </c>
       <c r="E117" t="n">
         <v>33</v>
@@ -9715,7 +9715,7 @@
         <v>10718</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1384124075903216</v>
+        <v>3.380843857240935</v>
       </c>
       <c r="E118" t="n">
         <v>34</v>
@@ -9794,7 +9794,7 @@
         <v>742</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2119814841421086</v>
+        <v>2.67736081589492</v>
       </c>
       <c r="E119" t="n">
         <v>2</v>
@@ -9873,7 +9873,7 @@
         <v>5043</v>
       </c>
       <c r="D120" t="n">
-        <v>0.2019035187356319</v>
+        <v>2.756733622726742</v>
       </c>
       <c r="E120" t="n">
         <v>15</v>
@@ -9952,7 +9952,7 @@
         <v>5945</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1715689719632937</v>
+        <v>3.024930184754555</v>
       </c>
       <c r="E121" t="n">
         <v>18</v>
@@ -10031,7 +10031,7 @@
         <v>8030</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1860219505102286</v>
+        <v>2.891250174364502</v>
       </c>
       <c r="E122" t="n">
         <v>25</v>
@@ -10110,7 +10110,7 @@
         <v>9222</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1630011714600568</v>
+        <v>3.109857500004</v>
       </c>
       <c r="E123" t="n">
         <v>29</v>
@@ -10189,7 +10189,7 @@
         <v>9535</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1655241984170979</v>
+        <v>3.08438118528908</v>
       </c>
       <c r="E124" t="n">
         <v>30</v>
@@ -10268,7 +10268,7 @@
         <v>10413</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1669254310664016</v>
+        <v>3.070403032313157</v>
       </c>
       <c r="E125" t="n">
         <v>33</v>
@@ -10347,7 +10347,7 @@
         <v>12525</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1764659196219817</v>
+        <v>2.9783431966536</v>
       </c>
       <c r="E126" t="n">
         <v>40</v>
@@ -10426,7 +10426,7 @@
         <v>189</v>
       </c>
       <c r="D127" t="n">
-        <v>0.157991895198495</v>
+        <v>3.16164402599412</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>2894</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1576596916740876</v>
+        <v>3.165136481155758</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -10584,7 +10584,7 @@
         <v>4401</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1510492989770999</v>
+        <v>3.236192100548394</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -10663,7 +10663,7 @@
         <v>6223</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1610248494219035</v>
+        <v>3.130094795307035</v>
       </c>
       <c r="E130" t="n">
         <v>20</v>
@@ -10742,7 +10742,7 @@
         <v>7773</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1725753090119887</v>
+        <v>3.01524378688859</v>
       </c>
       <c r="E131" t="n">
         <v>24</v>
@@ -10821,7 +10821,7 @@
         <v>8950</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1499874138534652</v>
+        <v>3.247890618681907</v>
       </c>
       <c r="E132" t="n">
         <v>28</v>
@@ -10900,7 +10900,7 @@
         <v>9520</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1575226118483832</v>
+        <v>3.16657974377348</v>
       </c>
       <c r="E133" t="n">
         <v>30</v>
@@ -10979,7 +10979,7 @@
         <v>10123</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1345513697925826</v>
+        <v>3.427531705829424</v>
       </c>
       <c r="E134" t="n">
         <v>32</v>
@@ -11058,7 +11058,7 @@
         <v>11940</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1330983107392321</v>
+        <v>3.445422789041305</v>
       </c>
       <c r="E135" t="n">
         <v>38</v>
@@ -11137,7 +11137,7 @@
         <v>12520</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1412890758848197</v>
+        <v>3.346841832540576</v>
       </c>
       <c r="E136" t="n">
         <v>40</v>
@@ -11216,7 +11216,7 @@
         <v>1128</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1747678595827731</v>
+        <v>2.994342410401167</v>
       </c>
       <c r="E137" t="n">
         <v>2</v>
@@ -11295,7 +11295,7 @@
         <v>2353</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1509691691357129</v>
+        <v>3.237072066660681</v>
       </c>
       <c r="E138" t="n">
         <v>6</v>
@@ -11374,7 +11374,7 @@
         <v>2607</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1487838949561833</v>
+        <v>3.261247350948782</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11453,7 +11453,7 @@
         <v>3547</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1396227452858318</v>
+        <v>3.366457681973636</v>
       </c>
       <c r="E140" t="n">
         <v>10</v>
@@ -11532,7 +11532,7 @@
         <v>5325</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1385024327882246</v>
+        <v>3.379769768697964</v>
       </c>
       <c r="E141" t="n">
         <v>16</v>
@@ -11611,7 +11611,7 @@
         <v>5926</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1482215869335091</v>
+        <v>3.267523854819525</v>
       </c>
       <c r="E142" t="n">
         <v>18</v>
@@ -11690,7 +11690,7 @@
         <v>7448</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1708315456766999</v>
+        <v>3.032065835404409</v>
       </c>
       <c r="E143" t="n">
         <v>23</v>
@@ -11769,7 +11769,7 @@
         <v>8925</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1494176843991415</v>
+        <v>3.254200483152572</v>
       </c>
       <c r="E144" t="n">
         <v>28</v>
@@ -11848,7 +11848,7 @@
         <v>10412</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1707481241358912</v>
+        <v>3.032875072570781</v>
       </c>
       <c r="E145" t="n">
         <v>33</v>
@@ -11927,7 +11927,7 @@
         <v>10742</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1862596781726445</v>
+        <v>2.889145157521509</v>
       </c>
       <c r="E146" t="n">
         <v>34</v>
@@ -12006,7 +12006,7 @@
         <v>11930</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1749108196354856</v>
+        <v>2.99298914321803</v>
       </c>
       <c r="E147" t="n">
         <v>38</v>
@@ -12085,7 +12085,7 @@
         <v>13433</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1604304751866137</v>
+        <v>3.136230231509869</v>
       </c>
       <c r="E148" t="n">
         <v>43</v>
@@ -12164,7 +12164,7 @@
         <v>13719</v>
       </c>
       <c r="D149" t="n">
-        <v>0.163546604863668</v>
+        <v>3.104316115051905</v>
       </c>
       <c r="E149" t="n">
         <v>44</v>
@@ -12243,7 +12243,7 @@
         <v>6476</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1252518164396068</v>
+        <v>3.545204916879098</v>
       </c>
       <c r="E150" t="n">
         <v>20</v>
@@ -12322,7 +12322,7 @@
         <v>10145</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1234798553685547</v>
+        <v>3.5685082300434</v>
       </c>
       <c r="E151" t="n">
         <v>32</v>
@@ -12401,7 +12401,7 @@
         <v>10448</v>
       </c>
       <c r="D152" t="n">
-        <v>0.137480400808217</v>
+        <v>3.392002055161454</v>
       </c>
       <c r="E152" t="n">
         <v>33</v>
@@ -12480,7 +12480,7 @@
         <v>11325</v>
       </c>
       <c r="D153" t="n">
-        <v>0.122692641473509</v>
+        <v>3.578955342888975</v>
       </c>
       <c r="E153" t="n">
         <v>36</v>
@@ -12559,7 +12559,7 @@
         <v>12258</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1275744547357427</v>
+        <v>3.515097352034666</v>
       </c>
       <c r="E154" t="n">
         <v>39</v>
@@ -12638,7 +12638,7 @@
         <v>12562</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1312692920424244</v>
+        <v>3.468198363891129</v>
       </c>
       <c r="E155" t="n">
         <v>40</v>
@@ -12717,7 +12717,7 @@
         <v>13398</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1441507071136588</v>
+        <v>3.313659670487041</v>
       </c>
       <c r="E156" t="n">
         <v>43</v>
@@ -12796,7 +12796,7 @@
         <v>1450</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1495646596031018</v>
+        <v>3.252570467628934</v>
       </c>
       <c r="E157" t="n">
         <v>3</v>
@@ -12875,7 +12875,7 @@
         <v>2649</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1276955391165151</v>
+        <v>3.513541196675722</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -12954,7 +12954,7 @@
         <v>4738</v>
       </c>
       <c r="D159" t="n">
-        <v>0.123730029216035</v>
+        <v>3.565200393837138</v>
       </c>
       <c r="E159" t="n">
         <v>14</v>
@@ -13033,7 +13033,7 @@
         <v>8318</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1226387419471428</v>
+        <v>3.579672786275452</v>
       </c>
       <c r="E160" t="n">
         <v>26</v>
@@ -13112,7 +13112,7 @@
         <v>8665</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1236992396515426</v>
+        <v>3.565607181169188</v>
       </c>
       <c r="E161" t="n">
         <v>27</v>
@@ -13191,7 +13191,7 @@
         <v>9599</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1247334132745529</v>
+        <v>3.551992296237348</v>
       </c>
       <c r="E162" t="n">
         <v>30</v>
@@ -13270,7 +13270,7 @@
         <v>14016</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1253451007924656</v>
+        <v>3.543986193623037</v>
       </c>
       <c r="E163" t="n">
         <v>45</v>
@@ -13349,7 +13349,7 @@
         <v>780</v>
       </c>
       <c r="D164" t="n">
-        <v>0.2034169817610235</v>
+        <v>3.106723806437658</v>
       </c>
       <c r="E164" t="n">
         <v>1</v>
@@ -13428,7 +13428,7 @@
         <v>1990</v>
       </c>
       <c r="D165" t="n">
-        <v>0.2749388237911841</v>
+        <v>2.515985997916752</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -13507,7 +13507,7 @@
         <v>2596</v>
       </c>
       <c r="D166" t="n">
-        <v>0.2460240430652684</v>
+        <v>2.726634508259712</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13586,7 +13586,7 @@
         <v>2884</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1867695333044003</v>
+        <v>3.284379743559105</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -13665,7 +13665,7 @@
         <v>4094</v>
       </c>
       <c r="D168" t="n">
-        <v>0.196234670414688</v>
+        <v>3.181041079132122</v>
       </c>
       <c r="E168" t="n">
         <v>12</v>
@@ -13744,7 +13744,7 @@
         <v>5591</v>
       </c>
       <c r="D169" t="n">
-        <v>0.2110483948777667</v>
+        <v>3.031345705277168</v>
       </c>
       <c r="E169" t="n">
         <v>17</v>
@@ -13823,7 +13823,7 @@
         <v>6500</v>
       </c>
       <c r="D170" t="n">
-        <v>0.2001424954520846</v>
+        <v>3.140185823322722</v>
       </c>
       <c r="E170" t="n">
         <v>20</v>
@@ -13902,7 +13902,7 @@
         <v>7041</v>
       </c>
       <c r="D171" t="n">
-        <v>0.182771871747356</v>
+        <v>3.329997877017638</v>
       </c>
       <c r="E171" t="n">
         <v>22</v>
@@ -13981,7 +13981,7 @@
         <v>9205</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1912334017609566</v>
+        <v>3.234848460883403</v>
       </c>
       <c r="E172" t="n">
         <v>29</v>
@@ -14060,7 +14060,7 @@
         <v>1929</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1712488799993921</v>
+        <v>3.468615202630298</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -14139,7 +14139,7 @@
         <v>2293</v>
       </c>
       <c r="D174" t="n">
-        <v>0.2257551774794547</v>
+        <v>2.89560063843426</v>
       </c>
       <c r="E174" t="n">
         <v>6</v>
@@ -14218,7 +14218,7 @@
         <v>3131</v>
       </c>
       <c r="D175" t="n">
-        <v>0.1761447053754814</v>
+        <v>3.408380280182037</v>
       </c>
       <c r="E175" t="n">
         <v>9</v>
@@ -14297,7 +14297,7 @@
         <v>8313</v>
       </c>
       <c r="D176" t="n">
-        <v>0.2471992871665428</v>
+        <v>2.717417210257412</v>
       </c>
       <c r="E176" t="n">
         <v>26</v>
@@ -14376,7 +14376,7 @@
         <v>1037</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1645365628066765</v>
+        <v>3.554626717356267</v>
       </c>
       <c r="E177" t="n">
         <v>2</v>
@@ -14455,7 +14455,7 @@
         <v>2615</v>
       </c>
       <c r="D178" t="n">
-        <v>0.2004270833090129</v>
+        <v>3.137250061968416</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14534,7 +14534,7 @@
         <v>3765</v>
       </c>
       <c r="D179" t="n">
-        <v>0.2148371315495264</v>
+        <v>2.995218208248293</v>
       </c>
       <c r="E179" t="n">
         <v>11</v>
@@ -14613,7 +14613,7 @@
         <v>5566</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1939112238655218</v>
+        <v>3.205821857110352</v>
       </c>
       <c r="E180" t="n">
         <v>17</v>
@@ -14692,7 +14692,7 @@
         <v>7047</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1698708972017305</v>
+        <v>3.48594216736229</v>
       </c>
       <c r="E181" t="n">
         <v>22</v>
@@ -14771,7 +14771,7 @@
         <v>8561</v>
       </c>
       <c r="D182" t="n">
-        <v>0.1848492786502983</v>
+        <v>3.306140419286528</v>
       </c>
       <c r="E182" t="n">
         <v>27</v>
@@ -14850,7 +14850,7 @@
         <v>10379</v>
       </c>
       <c r="D183" t="n">
-        <v>0.2143440899735769</v>
+        <v>2.9998725796483</v>
       </c>
       <c r="E183" t="n">
         <v>33</v>
@@ -14929,7 +14929,7 @@
         <v>11314</v>
       </c>
       <c r="D184" t="n">
-        <v>0.1979234011903171</v>
+        <v>3.163260708323681</v>
       </c>
       <c r="E184" t="n">
         <v>36</v>
@@ -15008,7 +15008,7 @@
         <v>12452</v>
       </c>
       <c r="D185" t="n">
-        <v>0.1882800300658748</v>
+        <v>3.26745606317777</v>
       </c>
       <c r="E185" t="n">
         <v>40</v>
@@ -15087,7 +15087,7 @@
         <v>13380</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1868001891088102</v>
+        <v>3.284034591025092</v>
       </c>
       <c r="E186" t="n">
         <v>43</v>
@@ -15166,7 +15166,7 @@
         <v>177</v>
       </c>
       <c r="D187" t="n">
-        <v>0.1856044509932898</v>
+        <v>3.297549515836271</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -15245,7 +15245,7 @@
         <v>735</v>
       </c>
       <c r="D188" t="n">
-        <v>0.1656139694343019</v>
+        <v>3.540543753875614</v>
       </c>
       <c r="E188" t="n">
         <v>1</v>
@@ -15324,7 +15324,7 @@
         <v>3173</v>
       </c>
       <c r="D189" t="n">
-        <v>0.1638662975569989</v>
+        <v>3.563442746676268</v>
       </c>
       <c r="E189" t="n">
         <v>9</v>
@@ -15403,7 +15403,7 @@
         <v>4958</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1729070683814023</v>
+        <v>3.447984664883635</v>
       </c>
       <c r="E190" t="n">
         <v>15</v>
@@ -15482,7 +15482,7 @@
         <v>5275</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1792474802292881</v>
+        <v>3.37124305416928</v>
       </c>
       <c r="E191" t="n">
         <v>16</v>
@@ -15561,7 +15561,7 @@
         <v>5548</v>
       </c>
       <c r="D192" t="n">
-        <v>0.1681884500026715</v>
+        <v>3.507326028497087</v>
       </c>
       <c r="E192" t="n">
         <v>17</v>
@@ -15640,7 +15640,7 @@
         <v>8594</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1708479352933302</v>
+        <v>3.473639518387385</v>
       </c>
       <c r="E193" t="n">
         <v>27</v>
@@ -15719,7 +15719,7 @@
         <v>9768</v>
       </c>
       <c r="D194" t="n">
-        <v>0.1639789787329681</v>
+        <v>3.561957685299783</v>
       </c>
       <c r="E194" t="n">
         <v>31</v>
@@ -15798,7 +15798,7 @@
         <v>13635</v>
       </c>
       <c r="D195" t="n">
-        <v>0.1647705533230721</v>
+        <v>3.551558972018588</v>
       </c>
       <c r="E195" t="n">
         <v>44</v>
@@ -15877,7 +15877,7 @@
         <v>7342</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1814886900051328</v>
+        <v>3.344901208647454</v>
       </c>
       <c r="E196" t="n">
         <v>23</v>
@@ -15956,7 +15956,7 @@
         <v>9465</v>
       </c>
       <c r="D197" t="n">
-        <v>0.2225062426617935</v>
+        <v>2.924570999437576</v>
       </c>
       <c r="E197" t="n">
         <v>30</v>
@@ -16035,7 +16035,7 @@
         <v>10356</v>
       </c>
       <c r="D198" t="n">
-        <v>0.1920573037159756</v>
+        <v>3.225863770513315</v>
       </c>
       <c r="E198" t="n">
         <v>33</v>
@@ -16114,7 +16114,7 @@
         <v>10637</v>
       </c>
       <c r="D199" t="n">
-        <v>0.1995312363756654</v>
+        <v>3.146509422863604</v>
       </c>
       <c r="E199" t="n">
         <v>34</v>
@@ -16193,7 +16193,7 @@
         <v>1091</v>
       </c>
       <c r="D200" t="n">
-        <v>0.1820344246113275</v>
+        <v>3.33854712288308</v>
       </c>
       <c r="E200" t="n">
         <v>2</v>
@@ -16272,7 +16272,7 @@
         <v>4956</v>
       </c>
       <c r="D201" t="n">
-        <v>0.1755137010084237</v>
+        <v>3.416029815711912</v>
       </c>
       <c r="E201" t="n">
         <v>15</v>
@@ -16351,7 +16351,7 @@
         <v>5892</v>
       </c>
       <c r="D202" t="n">
-        <v>0.183588765925563</v>
+        <v>3.320576875136771</v>
       </c>
       <c r="E202" t="n">
         <v>18</v>
@@ -16430,7 +16430,7 @@
         <v>8001</v>
       </c>
       <c r="D203" t="n">
-        <v>0.2123485016608718</v>
+        <v>3.018854329417019</v>
       </c>
       <c r="E203" t="n">
         <v>25</v>
@@ -16509,7 +16509,7 @@
         <v>9186</v>
       </c>
       <c r="D204" t="n">
-        <v>0.1898847712325837</v>
+        <v>3.24966009142812</v>
       </c>
       <c r="E204" t="n">
         <v>29</v>
@@ -16588,7 +16588,7 @@
         <v>9456</v>
       </c>
       <c r="D205" t="n">
-        <v>0.1950931831224299</v>
+        <v>3.193169256610133</v>
       </c>
       <c r="E205" t="n">
         <v>30</v>
@@ -16667,7 +16667,7 @@
         <v>10409</v>
       </c>
       <c r="D206" t="n">
-        <v>0.1879084414559655</v>
+        <v>3.271603713877565</v>
       </c>
       <c r="E206" t="n">
         <v>33</v>
@@ -16746,7 +16746,7 @@
         <v>12520</v>
       </c>
       <c r="D207" t="n">
-        <v>0.1810148327198191</v>
+        <v>3.350437408423099</v>
       </c>
       <c r="E207" t="n">
         <v>40</v>
@@ -16825,7 +16825,7 @@
         <v>150</v>
       </c>
       <c r="D208" t="n">
-        <v>0.1812325833283366</v>
+        <v>3.347891172163381</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
@@ -16904,7 +16904,7 @@
         <v>2887</v>
       </c>
       <c r="D209" t="n">
-        <v>0.1887636218483687</v>
+        <v>3.262073428967745</v>
       </c>
       <c r="E209" t="n">
         <v>8</v>
@@ -16983,7 +16983,7 @@
         <v>4405</v>
       </c>
       <c r="D210" t="n">
-        <v>0.1811357000551881</v>
+        <v>3.34902360098484</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -17062,7 +17062,7 @@
         <v>6476</v>
       </c>
       <c r="D211" t="n">
-        <v>0.1775552471767325</v>
+        <v>3.391399844245919</v>
       </c>
       <c r="E211" t="n">
         <v>20</v>
@@ -17141,7 +17141,7 @@
         <v>7645</v>
       </c>
       <c r="D212" t="n">
-        <v>0.176503866007561</v>
+        <v>3.404041032575232</v>
       </c>
       <c r="E212" t="n">
         <v>24</v>
@@ -17220,7 +17220,7 @@
         <v>8883</v>
       </c>
       <c r="D213" t="n">
-        <v>0.1909472479200255</v>
+        <v>3.237980299183972</v>
       </c>
       <c r="E213" t="n">
         <v>28</v>
@@ -17299,7 +17299,7 @@
         <v>9498</v>
       </c>
       <c r="D214" t="n">
-        <v>0.1782665843230975</v>
+        <v>3.382898527944208</v>
       </c>
       <c r="E214" t="n">
         <v>30</v>
@@ -17378,7 +17378,7 @@
         <v>10083</v>
       </c>
       <c r="D215" t="n">
-        <v>0.1933344705312087</v>
+        <v>3.212031068351349</v>
       </c>
       <c r="E215" t="n">
         <v>32</v>
@@ -17457,7 +17457,7 @@
         <v>11865</v>
       </c>
       <c r="D216" t="n">
-        <v>0.178241627112098</v>
+        <v>3.383196098180816</v>
       </c>
       <c r="E216" t="n">
         <v>38</v>
@@ -17536,7 +17536,7 @@
         <v>12481</v>
       </c>
       <c r="D217" t="n">
-        <v>0.1938337540320271</v>
+        <v>3.206654534129043</v>
       </c>
       <c r="E217" t="n">
         <v>40</v>
@@ -17615,7 +17615,7 @@
         <v>1041</v>
       </c>
       <c r="D218" t="n">
-        <v>0.1663301660530591</v>
+        <v>3.531241881683227</v>
       </c>
       <c r="E218" t="n">
         <v>2</v>
@@ -17694,7 +17694,7 @@
         <v>2303</v>
       </c>
       <c r="D219" t="n">
-        <v>0.1774736422927275</v>
+        <v>3.392377761545949</v>
       </c>
       <c r="E219" t="n">
         <v>6</v>
@@ -17773,7 +17773,7 @@
         <v>2540</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1935276867274583</v>
+        <v>3.209948356673762</v>
       </c>
       <c r="E220" t="n">
         <v>7</v>
@@ -17852,7 +17852,7 @@
         <v>3464</v>
       </c>
       <c r="D221" t="n">
-        <v>0.2133664056996706</v>
+        <v>3.009143356551225</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -17931,7 +17931,7 @@
         <v>5265</v>
       </c>
       <c r="D222" t="n">
-        <v>0.184865571837003</v>
+        <v>3.305954610133793</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -18010,7 +18010,7 @@
         <v>5897</v>
       </c>
       <c r="D223" t="n">
-        <v>0.1830710340713504</v>
+        <v>3.326541735419609</v>
       </c>
       <c r="E223" t="n">
         <v>18</v>
@@ -18089,7 +18089,7 @@
         <v>7418</v>
       </c>
       <c r="D224" t="n">
-        <v>0.1850045406304896</v>
+        <v>3.304370615739542</v>
       </c>
       <c r="E224" t="n">
         <v>23</v>
@@ -18168,7 +18168,7 @@
         <v>8926</v>
       </c>
       <c r="D225" t="n">
-        <v>0.1757567014475993</v>
+        <v>3.413080042365314</v>
       </c>
       <c r="E225" t="n">
         <v>28</v>
@@ -18247,7 +18247,7 @@
         <v>10366</v>
       </c>
       <c r="D226" t="n">
-        <v>0.1672281317909842</v>
+        <v>3.519645885029496</v>
       </c>
       <c r="E226" t="n">
         <v>33</v>
@@ -18326,7 +18326,7 @@
         <v>10717</v>
       </c>
       <c r="D227" t="n">
-        <v>0.1769686177075933</v>
+        <v>3.39844190969284</v>
       </c>
       <c r="E227" t="n">
         <v>34</v>
@@ -18405,7 +18405,7 @@
         <v>11899</v>
       </c>
       <c r="D228" t="n">
-        <v>0.1750881771336549</v>
+        <v>3.421207132599726</v>
       </c>
       <c r="E228" t="n">
         <v>38</v>
@@ -18484,7 +18484,7 @@
         <v>13379</v>
       </c>
       <c r="D229" t="n">
-        <v>0.1828821423291664</v>
+        <v>3.328723143302594</v>
       </c>
       <c r="E229" t="n">
         <v>43</v>
@@ -18563,7 +18563,7 @@
         <v>13644</v>
       </c>
       <c r="D230" t="n">
-        <v>0.1756299203184635</v>
+        <v>3.414618418674287</v>
       </c>
       <c r="E230" t="n">
         <v>44</v>
@@ -18642,7 +18642,7 @@
         <v>154</v>
       </c>
       <c r="D231" t="n">
-        <v>0.1643690062496027</v>
+        <v>3.556826632586299</v>
       </c>
       <c r="E231" t="n">
         <v>0</v>
@@ -18721,7 +18721,7 @@
         <v>754</v>
       </c>
       <c r="D232" t="n">
-        <v>0.16680275223276</v>
+        <v>3.525129871339364</v>
       </c>
       <c r="E232" t="n">
         <v>1</v>
@@ -18800,7 +18800,7 @@
         <v>6494</v>
       </c>
       <c r="D233" t="n">
-        <v>0.1796725937456192</v>
+        <v>3.366215743339779</v>
       </c>
       <c r="E233" t="n">
         <v>20</v>
@@ -18879,7 +18879,7 @@
         <v>10112</v>
       </c>
       <c r="D234" t="n">
-        <v>0.1917377135531183</v>
+        <v>3.229343189192969</v>
       </c>
       <c r="E234" t="n">
         <v>32</v>
@@ -18958,7 +18958,7 @@
         <v>10387</v>
       </c>
       <c r="D235" t="n">
-        <v>0.2182830334513702</v>
+        <v>2.963072778816312</v>
       </c>
       <c r="E235" t="n">
         <v>33</v>
@@ -19037,7 +19037,7 @@
         <v>11322</v>
       </c>
       <c r="D236" t="n">
-        <v>0.1698843618286024</v>
+        <v>3.485772050565414</v>
       </c>
       <c r="E236" t="n">
         <v>36</v>
@@ -19116,7 +19116,7 @@
         <v>12167</v>
       </c>
       <c r="D237" t="n">
-        <v>0.1685001706914794</v>
+        <v>3.503344919702216</v>
       </c>
       <c r="E237" t="n">
         <v>39</v>
@@ -19195,7 +19195,7 @@
         <v>12545</v>
       </c>
       <c r="D238" t="n">
-        <v>0.1795939077245873</v>
+        <v>3.367145175381936</v>
       </c>
       <c r="E238" t="n">
         <v>40</v>
@@ -19274,7 +19274,7 @@
         <v>13353</v>
       </c>
       <c r="D239" t="n">
-        <v>0.1744791150482538</v>
+        <v>3.428644016865545</v>
       </c>
       <c r="E239" t="n">
         <v>43</v>
@@ -19353,7 +19353,7 @@
         <v>8485</v>
       </c>
       <c r="D240" t="n">
-        <v>0.1755809357019457</v>
+        <v>3.415213162812529</v>
       </c>
       <c r="E240" t="n">
         <v>27</v>
@@ -19428,7 +19428,7 @@
         <v>773</v>
       </c>
       <c r="D241" t="n">
-        <v>0.2771822510635429</v>
+        <v>4.779283842178247</v>
       </c>
       <c r="E241" t="n">
         <v>1</v>
@@ -19507,7 +19507,7 @@
         <v>1984</v>
       </c>
       <c r="D242" t="n">
-        <v>0.3119489401117332</v>
+        <v>4.119560021163124</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -19586,7 +19586,7 @@
         <v>2592</v>
       </c>
       <c r="D243" t="n">
-        <v>0.2816540427784805</v>
+        <v>4.682648274955809</v>
       </c>
       <c r="E243" t="n">
         <v>7</v>
@@ -19665,7 +19665,7 @@
         <v>2938</v>
       </c>
       <c r="D244" t="n">
-        <v>0.2811412866393595</v>
+        <v>4.693527453381161</v>
       </c>
       <c r="E244" t="n">
         <v>8</v>
@@ -19744,7 +19744,7 @@
         <v>4176</v>
       </c>
       <c r="D245" t="n">
-        <v>0.3089132848353778</v>
+        <v>4.169718040076395</v>
       </c>
       <c r="E245" t="n">
         <v>12</v>
@@ -19823,7 +19823,7 @@
         <v>5589</v>
       </c>
       <c r="D246" t="n">
-        <v>0.3438642232221938</v>
+        <v>3.657947260918871</v>
       </c>
       <c r="E246" t="n">
         <v>17</v>
@@ -19902,7 +19902,7 @@
         <v>6484</v>
       </c>
       <c r="D247" t="n">
-        <v>0.4002249159303047</v>
+        <v>3.056427431517355</v>
       </c>
       <c r="E247" t="n">
         <v>20</v>
@@ -19981,7 +19981,7 @@
         <v>9187</v>
       </c>
       <c r="D248" t="n">
-        <v>0.3092365485823917</v>
+        <v>4.164317826383991</v>
       </c>
       <c r="E248" t="n">
         <v>29</v>
@@ -20060,7 +20060,7 @@
         <v>2052</v>
       </c>
       <c r="D249" t="n">
-        <v>0.3237520563720357</v>
+        <v>3.935654109547047</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -20139,7 +20139,7 @@
         <v>2282</v>
       </c>
       <c r="D250" t="n">
-        <v>0.3897647818240342</v>
+        <v>3.152362809537923</v>
       </c>
       <c r="E250" t="n">
         <v>6</v>
@@ -20218,7 +20218,7 @@
         <v>3161</v>
       </c>
       <c r="D251" t="n">
-        <v>0.3730253633476766</v>
+        <v>3.31937679770608</v>
       </c>
       <c r="E251" t="n">
         <v>9</v>
@@ -20297,7 +20297,7 @@
         <v>8279</v>
       </c>
       <c r="D252" t="n">
-        <v>0.3326540389214769</v>
+        <v>3.807618266857811</v>
       </c>
       <c r="E252" t="n">
         <v>26</v>
@@ -20376,7 +20376,7 @@
         <v>1086</v>
       </c>
       <c r="D253" t="n">
-        <v>0.3387798458397348</v>
+        <v>3.724320306223896</v>
       </c>
       <c r="E253" t="n">
         <v>2</v>
@@ -20455,7 +20455,7 @@
         <v>2562</v>
       </c>
       <c r="D254" t="n">
-        <v>0.3626222235641457</v>
+        <v>3.432588111631012</v>
       </c>
       <c r="E254" t="n">
         <v>7</v>
@@ -20534,7 +20534,7 @@
         <v>3792</v>
       </c>
       <c r="D255" t="n">
-        <v>0.3282768385273188</v>
+        <v>3.869499286762872</v>
       </c>
       <c r="E255" t="n">
         <v>11</v>
@@ -20613,7 +20613,7 @@
         <v>5571</v>
       </c>
       <c r="D256" t="n">
-        <v>0.304337010493461</v>
+        <v>4.247720798659432</v>
       </c>
       <c r="E256" t="n">
         <v>17</v>
@@ -20692,7 +20692,7 @@
         <v>7060</v>
       </c>
       <c r="D257" t="n">
-        <v>0.3385555473348729</v>
+        <v>3.727304866822539</v>
       </c>
       <c r="E257" t="n">
         <v>22</v>
@@ -20771,7 +20771,7 @@
         <v>8585</v>
       </c>
       <c r="D258" t="n">
-        <v>0.3819041401819567</v>
+        <v>3.228604198466432</v>
       </c>
       <c r="E258" t="n">
         <v>27</v>
@@ -20850,7 +20850,7 @@
         <v>10401</v>
       </c>
       <c r="D259" t="n">
-        <v>0.4089072823128963</v>
+        <v>2.981209115386076</v>
       </c>
       <c r="E259" t="n">
         <v>33</v>
@@ -20929,7 +20929,7 @@
         <v>11279</v>
       </c>
       <c r="D260" t="n">
-        <v>0.3851152636907824</v>
+        <v>3.197008934595526</v>
       </c>
       <c r="E260" t="n">
         <v>36</v>
@@ -21008,7 +21008,7 @@
         <v>12481</v>
       </c>
       <c r="D261" t="n">
-        <v>0.3423767746043199</v>
+        <v>3.677114495446675</v>
       </c>
       <c r="E261" t="n">
         <v>40</v>
@@ -21087,7 +21087,7 @@
         <v>13393</v>
       </c>
       <c r="D262" t="n">
-        <v>0.352933660292199</v>
+        <v>3.545340317513024</v>
       </c>
       <c r="E262" t="n">
         <v>43</v>
@@ -21166,7 +21166,7 @@
         <v>358</v>
       </c>
       <c r="D263" t="n">
-        <v>0.299718686904913</v>
+        <v>4.329503449324439</v>
       </c>
       <c r="E263" t="n">
         <v>0</v>
@@ -21245,7 +21245,7 @@
         <v>771</v>
       </c>
       <c r="D264" t="n">
-        <v>0.3084736253478126</v>
+        <v>4.177085544842784</v>
       </c>
       <c r="E264" t="n">
         <v>1</v>
@@ -21324,7 +21324,7 @@
         <v>3167</v>
       </c>
       <c r="D265" t="n">
-        <v>0.3366852444675928</v>
+        <v>3.752382253659324</v>
       </c>
       <c r="E265" t="n">
         <v>9</v>
@@ -21403,7 +21403,7 @@
         <v>4992</v>
       </c>
       <c r="D266" t="n">
-        <v>0.4048368254304144</v>
+        <v>3.015996518197291</v>
       </c>
       <c r="E266" t="n">
         <v>15</v>
@@ -21482,7 +21482,7 @@
         <v>5306</v>
       </c>
       <c r="D267" t="n">
-        <v>0.3693142564652092</v>
+        <v>3.35887906964714</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -21561,7 +21561,7 @@
         <v>5594</v>
       </c>
       <c r="D268" t="n">
-        <v>0.3847249514383442</v>
+        <v>3.200815624042604</v>
       </c>
       <c r="E268" t="n">
         <v>17</v>
@@ -21640,7 +21640,7 @@
         <v>8568</v>
       </c>
       <c r="D269" t="n">
-        <v>0.3004932424605317</v>
+        <v>4.315564996186009</v>
       </c>
       <c r="E269" t="n">
         <v>27</v>
@@ -21719,7 +21719,7 @@
         <v>9789</v>
       </c>
       <c r="D270" t="n">
-        <v>0.4006979734209678</v>
+        <v>3.052229418542403</v>
       </c>
       <c r="E270" t="n">
         <v>31</v>
@@ -21798,7 +21798,7 @@
         <v>13702</v>
       </c>
       <c r="D271" t="n">
-        <v>0.3382217192242601</v>
+        <v>3.731755872206306</v>
       </c>
       <c r="E271" t="n">
         <v>44</v>
@@ -21877,7 +21877,7 @@
         <v>9506</v>
       </c>
       <c r="D272" t="n">
-        <v>0.3165576250943142</v>
+        <v>4.045710549470676</v>
       </c>
       <c r="E272" t="n">
         <v>30</v>
@@ -21956,7 +21956,7 @@
         <v>10393</v>
       </c>
       <c r="D273" t="n">
-        <v>0.3557203520770032</v>
+        <v>3.512143963755125</v>
       </c>
       <c r="E273" t="n">
         <v>33</v>
@@ -22035,7 +22035,7 @@
         <v>10696</v>
       </c>
       <c r="D274" t="n">
-        <v>0.3255318765743618</v>
+        <v>3.909359628174721</v>
       </c>
       <c r="E274" t="n">
         <v>34</v>
@@ -22114,7 +22114,7 @@
         <v>1088</v>
       </c>
       <c r="D275" t="n">
-        <v>0.6611696263482777</v>
+        <v>1.749829135056925</v>
       </c>
       <c r="E275" t="n">
         <v>2</v>
@@ -22193,7 +22193,7 @@
         <v>5005</v>
       </c>
       <c r="D276" t="n">
-        <v>0.5281514496181891</v>
+        <v>2.232529715119358</v>
       </c>
       <c r="E276" t="n">
         <v>15</v>
@@ -22272,7 +22272,7 @@
         <v>5940</v>
       </c>
       <c r="D277" t="n">
-        <v>0.4495763356797546</v>
+        <v>2.673908541438559</v>
       </c>
       <c r="E277" t="n">
         <v>18</v>
@@ -22351,7 +22351,7 @@
         <v>8007</v>
       </c>
       <c r="D278" t="n">
-        <v>0.4000619802909956</v>
+        <v>3.05787608885318</v>
       </c>
       <c r="E278" t="n">
         <v>25</v>
@@ -22430,7 +22430,7 @@
         <v>9207</v>
       </c>
       <c r="D279" t="n">
-        <v>0.4965520497441195</v>
+        <v>2.390780941108136</v>
       </c>
       <c r="E279" t="n">
         <v>29</v>
@@ -22509,7 +22509,7 @@
         <v>9525</v>
       </c>
       <c r="D280" t="n">
-        <v>0.4308190293081154</v>
+        <v>2.80718798834773</v>
       </c>
       <c r="E280" t="n">
         <v>30</v>
@@ -22588,7 +22588,7 @@
         <v>10410</v>
       </c>
       <c r="D281" t="n">
-        <v>0.4065356695063996</v>
+        <v>3.001377306435093</v>
       </c>
       <c r="E281" t="n">
         <v>33</v>
@@ -22667,7 +22667,7 @@
         <v>12531</v>
       </c>
       <c r="D282" t="n">
-        <v>0.4945046377434838</v>
+        <v>2.401834793239316</v>
       </c>
       <c r="E282" t="n">
         <v>40</v>
@@ -22746,7 +22746,7 @@
         <v>181</v>
       </c>
       <c r="D283" t="n">
-        <v>0.3998118016133254</v>
+        <v>3.060103153923966</v>
       </c>
       <c r="E283" t="n">
         <v>0</v>
@@ -22825,7 +22825,7 @@
         <v>2890</v>
       </c>
       <c r="D284" t="n">
-        <v>0.4347705657516655</v>
+        <v>2.777990992359813</v>
       </c>
       <c r="E284" t="n">
         <v>8</v>
@@ -22904,7 +22904,7 @@
         <v>4398</v>
       </c>
       <c r="D285" t="n">
-        <v>0.3995343015149906</v>
+        <v>3.062577309779951</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -22983,7 +22983,7 @@
         <v>6500</v>
       </c>
       <c r="D286" t="n">
-        <v>0.5059011527268873</v>
+        <v>2.341605768669968</v>
       </c>
       <c r="E286" t="n">
         <v>20</v>
@@ -23062,7 +23062,7 @@
         <v>7669</v>
       </c>
       <c r="D287" t="n">
-        <v>0.638572456558022</v>
+        <v>1.816087144883548</v>
       </c>
       <c r="E287" t="n">
         <v>24</v>
@@ -23141,7 +23141,7 @@
         <v>8892</v>
       </c>
       <c r="D288" t="n">
-        <v>0.4776556151121722</v>
+        <v>2.496951412648981</v>
       </c>
       <c r="E288" t="n">
         <v>28</v>
@@ -23220,7 +23220,7 @@
         <v>9475</v>
       </c>
       <c r="D289" t="n">
-        <v>0.476483003835101</v>
+        <v>2.503859890872186</v>
       </c>
       <c r="E289" t="n">
         <v>30</v>
@@ -23299,7 +23299,7 @@
         <v>10074</v>
       </c>
       <c r="D290" t="n">
-        <v>0.4468407552276322</v>
+        <v>2.692533879054194</v>
       </c>
       <c r="E290" t="n">
         <v>32</v>
@@ -23378,7 +23378,7 @@
         <v>11846</v>
       </c>
       <c r="D291" t="n">
-        <v>0.5312573351649907</v>
+        <v>2.218129184785502</v>
       </c>
       <c r="E291" t="n">
         <v>38</v>
@@ -23457,7 +23457,7 @@
         <v>12494</v>
       </c>
       <c r="D292" t="n">
-        <v>0.4831155182018035</v>
+        <v>2.465292566513055</v>
       </c>
       <c r="E292" t="n">
         <v>40</v>
@@ -23536,7 +23536,7 @@
         <v>1091</v>
       </c>
       <c r="D293" t="n">
-        <v>0.3459878345059725</v>
+        <v>3.630932164403722</v>
       </c>
       <c r="E293" t="n">
         <v>2</v>
@@ -23615,7 +23615,7 @@
         <v>2335</v>
       </c>
       <c r="D294" t="n">
-        <v>0.4304064662314254</v>
+        <v>2.810272573041441</v>
       </c>
       <c r="E294" t="n">
         <v>6</v>
@@ -23694,7 +23694,7 @@
         <v>3506</v>
       </c>
       <c r="D295" t="n">
-        <v>0.373071461732652</v>
+        <v>3.318892064960242</v>
       </c>
       <c r="E295" t="n">
         <v>10</v>
@@ -23773,7 +23773,7 @@
         <v>5292</v>
       </c>
       <c r="D296" t="n">
-        <v>0.3872150883354087</v>
+        <v>3.1766869853497</v>
       </c>
       <c r="E296" t="n">
         <v>16</v>
@@ -23852,7 +23852,7 @@
         <v>5898</v>
       </c>
       <c r="D297" t="n">
-        <v>0.4041279393007385</v>
+        <v>3.022139868675936</v>
       </c>
       <c r="E297" t="n">
         <v>18</v>
@@ -23931,7 +23931,7 @@
         <v>7388</v>
       </c>
       <c r="D298" t="n">
-        <v>0.3518290747633805</v>
+        <v>3.558676188617105</v>
       </c>
       <c r="E298" t="n">
         <v>23</v>
@@ -24010,7 +24010,7 @@
         <v>8879</v>
       </c>
       <c r="D299" t="n">
-        <v>0.3933172144685929</v>
+        <v>3.119099351096997</v>
       </c>
       <c r="E299" t="n">
         <v>28</v>
@@ -24089,7 +24089,7 @@
         <v>10377</v>
       </c>
       <c r="D300" t="n">
-        <v>0.4268335541316812</v>
+        <v>2.837278909332412</v>
       </c>
       <c r="E300" t="n">
         <v>33</v>
@@ -24168,7 +24168,7 @@
         <v>10707</v>
       </c>
       <c r="D301" t="n">
-        <v>0.4209085360250202</v>
+        <v>2.883253855220022</v>
       </c>
       <c r="E301" t="n">
         <v>34</v>
@@ -24247,7 +24247,7 @@
         <v>11863</v>
       </c>
       <c r="D302" t="n">
-        <v>0.4567469241771885</v>
+        <v>2.626316848487667</v>
       </c>
       <c r="E302" t="n">
         <v>38</v>
@@ -24326,7 +24326,7 @@
         <v>13389</v>
       </c>
       <c r="D303" t="n">
-        <v>0.4370944675811754</v>
+        <v>2.761108585510189</v>
       </c>
       <c r="E303" t="n">
         <v>43</v>
@@ -24405,7 +24405,7 @@
         <v>13682</v>
       </c>
       <c r="D304" t="n">
-        <v>0.4785715365177246</v>
+        <v>2.491582378847648</v>
       </c>
       <c r="E304" t="n">
         <v>44</v>
@@ -24484,7 +24484,7 @@
         <v>224</v>
       </c>
       <c r="D305" t="n">
-        <v>0.338354205605716</v>
+        <v>3.729988107768203</v>
       </c>
       <c r="E305" t="n">
         <v>0</v>
@@ -24563,7 +24563,7 @@
         <v>775</v>
       </c>
       <c r="D306" t="n">
-        <v>0.3571412443717745</v>
+        <v>3.495460119856006</v>
       </c>
       <c r="E306" t="n">
         <v>1</v>
@@ -24642,7 +24642,7 @@
         <v>6513</v>
       </c>
       <c r="D307" t="n">
-        <v>0.3216571825673748</v>
+        <v>3.967067476445088</v>
       </c>
       <c r="E307" t="n">
         <v>20</v>
@@ -24721,7 +24721,7 @@
         <v>10102</v>
       </c>
       <c r="D308" t="n">
-        <v>0.3540478037482165</v>
+        <v>3.531991745336591</v>
       </c>
       <c r="E308" t="n">
         <v>32</v>
@@ -24800,7 +24800,7 @@
         <v>10393</v>
       </c>
       <c r="D309" t="n">
-        <v>0.3453790924481856</v>
+        <v>3.638634547733412</v>
       </c>
       <c r="E309" t="n">
         <v>33</v>
@@ -24879,7 +24879,7 @@
         <v>11282</v>
       </c>
       <c r="D310" t="n">
-        <v>0.3409376023513636</v>
+        <v>3.69585521962949</v>
       </c>
       <c r="E310" t="n">
         <v>36</v>
@@ -24958,7 +24958,7 @@
         <v>12172</v>
       </c>
       <c r="D311" t="n">
-        <v>0.3690147606039412</v>
+        <v>3.362108843916491</v>
       </c>
       <c r="E311" t="n">
         <v>39</v>
@@ -25037,7 +25037,7 @@
         <v>12470</v>
       </c>
       <c r="D312" t="n">
-        <v>0.3732558578958054</v>
+        <v>3.316954548872995</v>
       </c>
       <c r="E312" t="n">
         <v>40</v>
@@ -25116,7 +25116,7 @@
         <v>13374</v>
       </c>
       <c r="D313" t="n">
-        <v>0.3908315032316732</v>
+        <v>3.142298653479644</v>
       </c>
       <c r="E313" t="n">
         <v>43</v>
@@ -25195,7 +25195,7 @@
         <v>1404</v>
       </c>
       <c r="D314" t="n">
-        <v>0.3582078616593646</v>
+        <v>3.483041789511556</v>
       </c>
       <c r="E314" t="n">
         <v>3</v>
@@ -25274,7 +25274,7 @@
         <v>2634</v>
       </c>
       <c r="D315" t="n">
-        <v>0.3612265228650921</v>
+        <v>3.448378486870929</v>
       </c>
       <c r="E315" t="n">
         <v>7</v>
@@ -25353,7 +25353,7 @@
         <v>4692</v>
       </c>
       <c r="D316" t="n">
-        <v>0.3527058337140419</v>
+        <v>3.548082574436845</v>
       </c>
       <c r="E316" t="n">
         <v>14</v>
@@ -25432,7 +25432,7 @@
         <v>8290</v>
       </c>
       <c r="D317" t="n">
-        <v>0.3350896226415079</v>
+        <v>3.774049619186989</v>
       </c>
       <c r="E317" t="n">
         <v>26</v>
@@ -25511,7 +25511,7 @@
         <v>8611</v>
       </c>
       <c r="D318" t="n">
-        <v>0.3660088964131264</v>
+        <v>3.394878295344927</v>
       </c>
       <c r="E318" t="n">
         <v>27</v>
@@ -25590,7 +25590,7 @@
         <v>9465</v>
       </c>
       <c r="D319" t="n">
-        <v>0.3596302367336565</v>
+        <v>3.466620626576935</v>
       </c>
       <c r="E319" t="n">
         <v>30</v>
@@ -25669,7 +25669,7 @@
         <v>13969</v>
       </c>
       <c r="D320" t="n">
-        <v>0.3515594826485572</v>
+        <v>3.561946548724068</v>
       </c>
       <c r="E320" t="n">
         <v>45</v>
@@ -25748,7 +25748,7 @@
         <v>777</v>
       </c>
       <c r="D321" t="n">
-        <v>0.4295377602407325</v>
+        <v>3.725471644584029</v>
       </c>
       <c r="E321" t="n">
         <v>1</v>
@@ -25827,7 +25827,7 @@
         <v>1989</v>
       </c>
       <c r="D322" t="n">
-        <v>0.5462039546880039</v>
+        <v>2.696041084154535</v>
       </c>
       <c r="E322" t="n">
         <v>5</v>
@@ -25906,7 +25906,7 @@
         <v>2580</v>
       </c>
       <c r="D323" t="n">
-        <v>0.5693515531236194</v>
+        <v>2.558279710816658</v>
       </c>
       <c r="E323" t="n">
         <v>7</v>
@@ -25985,7 +25985,7 @@
         <v>2884</v>
       </c>
       <c r="D324" t="n">
-        <v>0.5269579914826419</v>
+        <v>2.823125661341818</v>
       </c>
       <c r="E324" t="n">
         <v>8</v>
@@ -26064,7 +26064,7 @@
         <v>4072</v>
       </c>
       <c r="D325" t="n">
-        <v>0.5409973934851789</v>
+        <v>2.729217744499867</v>
       </c>
       <c r="E325" t="n">
         <v>12</v>
@@ -26143,7 +26143,7 @@
         <v>5583</v>
       </c>
       <c r="D326" t="n">
-        <v>0.5061970050704842</v>
+        <v>2.97518463264687</v>
       </c>
       <c r="E326" t="n">
         <v>17</v>
@@ -26222,7 +26222,7 @@
         <v>6504</v>
       </c>
       <c r="D327" t="n">
-        <v>0.4486859162609251</v>
+        <v>3.503164795654944</v>
       </c>
       <c r="E327" t="n">
         <v>20</v>
@@ -26301,7 +26301,7 @@
         <v>7081</v>
       </c>
       <c r="D328" t="n">
-        <v>0.5009555280395936</v>
+        <v>3.016338918864907</v>
       </c>
       <c r="E328" t="n">
         <v>22</v>
@@ -26380,7 +26380,7 @@
         <v>9196</v>
       </c>
       <c r="D329" t="n">
-        <v>0.4813360276733598</v>
+        <v>3.181599133806892</v>
       </c>
       <c r="E329" t="n">
         <v>29</v>
@@ -26459,7 +26459,7 @@
         <v>1981</v>
       </c>
       <c r="D330" t="n">
-        <v>0.4431276125608883</v>
+        <v>3.56480421152348</v>
       </c>
       <c r="E330" t="n">
         <v>5</v>
@@ -26538,7 +26538,7 @@
         <v>2311</v>
       </c>
       <c r="D331" t="n">
-        <v>0.4128622885382038</v>
+        <v>3.944473639943168</v>
       </c>
       <c r="E331" t="n">
         <v>6</v>
@@ -26617,7 +26617,7 @@
         <v>3185</v>
       </c>
       <c r="D332" t="n">
-        <v>0.4211655773170504</v>
+        <v>3.832179762680471</v>
       </c>
       <c r="E332" t="n">
         <v>9</v>
@@ -26696,7 +26696,7 @@
         <v>8273</v>
       </c>
       <c r="D333" t="n">
-        <v>0.421198955657771</v>
+        <v>3.831741728539152</v>
       </c>
       <c r="E333" t="n">
         <v>26</v>
@@ -26775,7 +26775,7 @@
         <v>1079</v>
       </c>
       <c r="D334" t="n">
-        <v>0.4023496056904737</v>
+        <v>4.09683810646898</v>
       </c>
       <c r="E334" t="n">
         <v>2</v>
@@ -26854,7 +26854,7 @@
         <v>2580</v>
       </c>
       <c r="D335" t="n">
-        <v>0.4616239805709485</v>
+        <v>3.367933980127266</v>
       </c>
       <c r="E335" t="n">
         <v>7</v>
@@ -26933,7 +26933,7 @@
         <v>3769</v>
       </c>
       <c r="D336" t="n">
-        <v>0.4206293067973619</v>
+        <v>3.839231681839066</v>
       </c>
       <c r="E336" t="n">
         <v>11</v>
@@ -27012,7 +27012,7 @@
         <v>5585</v>
       </c>
       <c r="D337" t="n">
-        <v>0.4163564605981931</v>
+        <v>3.896396514347527</v>
       </c>
       <c r="E337" t="n">
         <v>17</v>
@@ -27091,7 +27091,7 @@
         <v>7120</v>
       </c>
       <c r="D338" t="n">
-        <v>0.4170934096659936</v>
+        <v>3.886411404447657</v>
       </c>
       <c r="E338" t="n">
         <v>22</v>
@@ -27170,7 +27170,7 @@
         <v>8572</v>
       </c>
       <c r="D339" t="n">
-        <v>0.4078133597346272</v>
+        <v>4.016157750884526</v>
       </c>
       <c r="E339" t="n">
         <v>27</v>
@@ -27249,7 +27249,7 @@
         <v>10425</v>
       </c>
       <c r="D340" t="n">
-        <v>0.3835192716755966</v>
+        <v>4.402617335098739</v>
       </c>
       <c r="E340" t="n">
         <v>33</v>
@@ -27328,7 +27328,7 @@
         <v>11309</v>
       </c>
       <c r="D341" t="n">
-        <v>0.445600901931823</v>
+        <v>3.537099661012796</v>
       </c>
       <c r="E341" t="n">
         <v>36</v>
@@ -27407,7 +27407,7 @@
         <v>12523</v>
       </c>
       <c r="D342" t="n">
-        <v>0.3987351552096091</v>
+        <v>4.152082311894202</v>
       </c>
       <c r="E342" t="n">
         <v>40</v>
@@ -27486,7 +27486,7 @@
         <v>13393</v>
       </c>
       <c r="D343" t="n">
-        <v>0.4628568782969662</v>
+        <v>3.355612866549343</v>
       </c>
       <c r="E343" t="n">
         <v>43</v>
@@ -27565,7 +27565,7 @@
         <v>191</v>
       </c>
       <c r="D344" t="n">
-        <v>0.3715970989657571</v>
+        <v>4.621906853855261</v>
       </c>
       <c r="E344" t="n">
         <v>0</v>
@@ -27644,7 +27644,7 @@
         <v>756</v>
       </c>
       <c r="D345" t="n">
-        <v>0.4199498629344008</v>
+        <v>3.848205098022759</v>
       </c>
       <c r="E345" t="n">
         <v>1</v>
@@ -27723,7 +27723,7 @@
         <v>3181</v>
       </c>
       <c r="D346" t="n">
-        <v>0.4685214519264241</v>
+        <v>3.300191234222403</v>
       </c>
       <c r="E346" t="n">
         <v>9</v>
@@ -27802,7 +27802,7 @@
         <v>4989</v>
       </c>
       <c r="D347" t="n">
-        <v>0.4141105047733565</v>
+        <v>3.927158502666975</v>
       </c>
       <c r="E347" t="n">
         <v>15</v>
@@ -27881,7 +27881,7 @@
         <v>5268</v>
       </c>
       <c r="D348" t="n">
-        <v>0.4476619429446039</v>
+        <v>3.514352988531776</v>
       </c>
       <c r="E348" t="n">
         <v>16</v>
@@ -27960,7 +27960,7 @@
         <v>5588</v>
       </c>
       <c r="D349" t="n">
-        <v>0.536707561921599</v>
+        <v>2.757207012811125</v>
       </c>
       <c r="E349" t="n">
         <v>17</v>
@@ -28039,7 +28039,7 @@
         <v>8576</v>
       </c>
       <c r="D350" t="n">
-        <v>0.4903397677398112</v>
+        <v>3.103461220971474</v>
       </c>
       <c r="E350" t="n">
         <v>27</v>
@@ -28118,7 +28118,7 @@
         <v>9814</v>
       </c>
       <c r="D351" t="n">
-        <v>0.4587145029207808</v>
+        <v>3.397387919201673</v>
       </c>
       <c r="E351" t="n">
         <v>31</v>
@@ -28197,7 +28197,7 @@
         <v>13733</v>
       </c>
       <c r="D352" t="n">
-        <v>0.4809215159664726</v>
+        <v>3.185295757678564</v>
       </c>
       <c r="E352" t="n">
         <v>44</v>
@@ -28276,7 +28276,7 @@
         <v>7368</v>
       </c>
       <c r="D353" t="n">
-        <v>0.5527191608200851</v>
+        <v>2.655704265996695</v>
       </c>
       <c r="E353" t="n">
         <v>23</v>
@@ -28355,7 +28355,7 @@
         <v>9509</v>
       </c>
       <c r="D354" t="n">
-        <v>0.5405443775618702</v>
+        <v>2.732145172833185</v>
       </c>
       <c r="E354" t="n">
         <v>30</v>
@@ -28434,7 +28434,7 @@
         <v>10370</v>
       </c>
       <c r="D355" t="n">
-        <v>0.5266988590072669</v>
+        <v>2.824923032463184</v>
       </c>
       <c r="E355" t="n">
         <v>33</v>
@@ -28513,7 +28513,7 @@
         <v>10688</v>
       </c>
       <c r="D356" t="n">
-        <v>0.6490281620671627</v>
+        <v>2.179846800918019</v>
       </c>
       <c r="E356" t="n">
         <v>34</v>
@@ -28592,7 +28592,7 @@
         <v>1061</v>
       </c>
       <c r="D357" t="n">
-        <v>0.4678226240289417</v>
+        <v>3.30692497923944</v>
       </c>
       <c r="E357" t="n">
         <v>2</v>
@@ -28671,7 +28671,7 @@
         <v>5061</v>
       </c>
       <c r="D358" t="n">
-        <v>0.521155542936327</v>
+        <v>2.863957156090397</v>
       </c>
       <c r="E358" t="n">
         <v>15</v>
@@ -28750,7 +28750,7 @@
         <v>5893</v>
       </c>
       <c r="D359" t="n">
-        <v>0.5277508116072137</v>
+        <v>2.817641487172242</v>
       </c>
       <c r="E359" t="n">
         <v>18</v>
@@ -28829,7 +28829,7 @@
         <v>8032</v>
       </c>
       <c r="D360" t="n">
-        <v>0.560176736594311</v>
+        <v>2.611067890334816</v>
       </c>
       <c r="E360" t="n">
         <v>25</v>
@@ -28908,7 +28908,7 @@
         <v>9169</v>
       </c>
       <c r="D361" t="n">
-        <v>0.4910293175862024</v>
+        <v>3.097642214685937</v>
       </c>
       <c r="E361" t="n">
         <v>29</v>
@@ -28987,7 +28987,7 @@
         <v>9511</v>
       </c>
       <c r="D362" t="n">
-        <v>0.5468988932234117</v>
+        <v>2.691677075417449</v>
       </c>
       <c r="E362" t="n">
         <v>30</v>
@@ -29066,7 +29066,7 @@
         <v>10422</v>
       </c>
       <c r="D363" t="n">
-        <v>0.5170332081739653</v>
+        <v>2.893729071526521</v>
       </c>
       <c r="E363" t="n">
         <v>33</v>
@@ -29145,7 +29145,7 @@
         <v>12545</v>
       </c>
       <c r="D364" t="n">
-        <v>0.6353225966739501</v>
+        <v>2.236275656012958</v>
       </c>
       <c r="E364" t="n">
         <v>40</v>
@@ -29224,7 +29224,7 @@
         <v>252</v>
       </c>
       <c r="D365" t="n">
-        <v>0.4969145509024809</v>
+        <v>3.048892099734215</v>
       </c>
       <c r="E365" t="n">
         <v>0</v>
@@ -29303,7 +29303,7 @@
         <v>2910</v>
       </c>
       <c r="D366" t="n">
-        <v>0.6664088864666211</v>
+        <v>2.112511115855687</v>
       </c>
       <c r="E366" t="n">
         <v>8</v>
@@ -29382,7 +29382,7 @@
         <v>4368</v>
       </c>
       <c r="D367" t="n">
-        <v>0.6715166151360159</v>
+        <v>2.093559950999622</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29461,7 +29461,7 @@
         <v>6477</v>
       </c>
       <c r="D368" t="n">
-        <v>0.6244060941502179</v>
+        <v>2.283505134271273</v>
       </c>
       <c r="E368" t="n">
         <v>20</v>
@@ -29540,7 +29540,7 @@
         <v>7724</v>
       </c>
       <c r="D369" t="n">
-        <v>0.5822210686922309</v>
+        <v>2.4879235346456</v>
       </c>
       <c r="E369" t="n">
         <v>24</v>
@@ -29619,7 +29619,7 @@
         <v>8907</v>
       </c>
       <c r="D370" t="n">
-        <v>0.6349192534296896</v>
+        <v>2.237983635616634</v>
       </c>
       <c r="E370" t="n">
         <v>28</v>
@@ -29698,7 +29698,7 @@
         <v>9526</v>
       </c>
       <c r="D371" t="n">
-        <v>0.6838570128019309</v>
+        <v>2.049241975221558</v>
       </c>
       <c r="E371" t="n">
         <v>30</v>
@@ -29777,7 +29777,7 @@
         <v>10113</v>
       </c>
       <c r="D372" t="n">
-        <v>0.6197181436247593</v>
+        <v>2.304446747242516</v>
       </c>
       <c r="E372" t="n">
         <v>32</v>
@@ -29856,7 +29856,7 @@
         <v>11874</v>
       </c>
       <c r="D373" t="n">
-        <v>0.6211437690199576</v>
+        <v>2.298035148985812</v>
       </c>
       <c r="E373" t="n">
         <v>38</v>
@@ -29935,7 +29935,7 @@
         <v>12483</v>
       </c>
       <c r="D374" t="n">
-        <v>0.6656453208306397</v>
+        <v>2.115375802101184</v>
       </c>
       <c r="E374" t="n">
         <v>40</v>
@@ -30014,7 +30014,7 @@
         <v>1090</v>
       </c>
       <c r="D375" t="n">
-        <v>0.385159495233622</v>
+        <v>4.374115926328209</v>
       </c>
       <c r="E375" t="n">
         <v>2</v>
@@ -30093,7 +30093,7 @@
         <v>2402</v>
       </c>
       <c r="D376" t="n">
-        <v>0.4264133059626427</v>
+        <v>3.764565307607246</v>
       </c>
       <c r="E376" t="n">
         <v>7</v>
@@ -30172,7 +30172,7 @@
         <v>3481</v>
       </c>
       <c r="D377" t="n">
-        <v>0.4095022539528676</v>
+        <v>3.991880244326453</v>
       </c>
       <c r="E377" t="n">
         <v>10</v>
@@ -30251,7 +30251,7 @@
         <v>5287</v>
       </c>
       <c r="D378" t="n">
-        <v>0.4068684736558889</v>
+        <v>4.029874263087479</v>
       </c>
       <c r="E378" t="n">
         <v>16</v>
@@ -30330,7 +30330,7 @@
         <v>5869</v>
       </c>
       <c r="D379" t="n">
-        <v>0.4497171353499738</v>
+        <v>3.491972162329438</v>
       </c>
       <c r="E379" t="n">
         <v>18</v>
@@ -30409,7 +30409,7 @@
         <v>7392</v>
       </c>
       <c r="D380" t="n">
-        <v>0.4707981497990201</v>
+        <v>3.278450732023468</v>
       </c>
       <c r="E380" t="n">
         <v>23</v>
@@ -30488,7 +30488,7 @@
         <v>8924</v>
       </c>
       <c r="D381" t="n">
-        <v>0.4456338764097024</v>
+        <v>3.53673332469651</v>
       </c>
       <c r="E381" t="n">
         <v>28</v>
@@ -30567,7 +30567,7 @@
         <v>10382</v>
       </c>
       <c r="D382" t="n">
-        <v>0.4748099687935456</v>
+        <v>3.240860519216245</v>
       </c>
       <c r="E382" t="n">
         <v>33</v>
@@ -30646,7 +30646,7 @@
         <v>10768</v>
       </c>
       <c r="D383" t="n">
-        <v>0.4704151496322232</v>
+        <v>3.282087102429357</v>
       </c>
       <c r="E383" t="n">
         <v>34</v>
@@ -30725,7 +30725,7 @@
         <v>11949</v>
       </c>
       <c r="D384" t="n">
-        <v>0.4566971846671562</v>
+        <v>3.41812767657922</v>
       </c>
       <c r="E384" t="n">
         <v>38</v>
@@ -30804,7 +30804,7 @@
         <v>13391</v>
       </c>
       <c r="D385" t="n">
-        <v>0.4114106286230385</v>
+        <v>3.964811128915706</v>
       </c>
       <c r="E385" t="n">
         <v>43</v>
@@ -30883,7 +30883,7 @@
         <v>13664</v>
       </c>
       <c r="D386" t="n">
-        <v>0.4712813617857925</v>
+        <v>3.273874897152754</v>
       </c>
       <c r="E386" t="n">
         <v>44</v>
@@ -30962,7 +30962,7 @@
         <v>427</v>
       </c>
       <c r="D387" t="n">
-        <v>0.3435415803321818</v>
+        <v>5.239219994579769</v>
       </c>
       <c r="E387" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>957</v>
       </c>
       <c r="D388" t="n">
-        <v>0.4009032155959727</v>
+        <v>4.118761516633107</v>
       </c>
       <c r="E388" t="n">
         <v>1</v>
@@ -31120,7 +31120,7 @@
         <v>6361</v>
       </c>
       <c r="D389" t="n">
-        <v>0.3900033340865272</v>
+        <v>4.292128392150166</v>
       </c>
       <c r="E389" t="n">
         <v>20</v>
@@ -31199,7 +31199,7 @@
         <v>9665</v>
       </c>
       <c r="D390" t="n">
-        <v>0.378047055291607</v>
+        <v>4.500544700623316</v>
       </c>
       <c r="E390" t="n">
         <v>32</v>
@@ -31278,7 +31278,7 @@
         <v>10283</v>
       </c>
       <c r="D391" t="n">
-        <v>0.3892242051539862</v>
+        <v>4.305101097155124</v>
       </c>
       <c r="E391" t="n">
         <v>33</v>
@@ -31357,7 +31357,7 @@
         <v>12402</v>
       </c>
       <c r="D392" t="n">
-        <v>0.4156625285550551</v>
+        <v>3.90584755194608</v>
       </c>
       <c r="E392" t="n">
         <v>40</v>
@@ -31436,7 +31436,7 @@
         <v>1217</v>
       </c>
       <c r="D393" t="n">
-        <v>0.3105797300650745</v>
+        <v>6.22368059618265</v>
       </c>
       <c r="E393" t="n">
         <v>3</v>
@@ -31515,7 +31515,7 @@
         <v>2605</v>
       </c>
       <c r="D394" t="n">
-        <v>0.4038430450565923</v>
+        <v>4.074453627908396</v>
       </c>
       <c r="E394" t="n">
         <v>7</v>
@@ -31594,7 +31594,7 @@
         <v>4707</v>
       </c>
       <c r="D395" t="n">
-        <v>0.3953529987714672</v>
+        <v>4.205191592387183</v>
       </c>
       <c r="E395" t="n">
         <v>14</v>
@@ -31673,7 +31673,7 @@
         <v>8284</v>
       </c>
       <c r="D396" t="n">
-        <v>0.3879122590418718</v>
+        <v>4.327129483559407</v>
       </c>
       <c r="E396" t="n">
         <v>26</v>
@@ -31752,7 +31752,7 @@
         <v>8646</v>
       </c>
       <c r="D397" t="n">
-        <v>0.3930147799027226</v>
+        <v>4.242737744093423</v>
       </c>
       <c r="E397" t="n">
         <v>27</v>
@@ -31831,7 +31831,7 @@
         <v>9584</v>
       </c>
       <c r="D398" t="n">
-        <v>0.3605711119049753</v>
+        <v>4.8457971549563</v>
       </c>
       <c r="E398" t="n">
         <v>30</v>
@@ -31910,7 +31910,7 @@
         <v>14054</v>
       </c>
       <c r="D399" t="n">
-        <v>0.3590630716499516</v>
+        <v>4.878169763592753</v>
       </c>
       <c r="E399" t="n">
         <v>45</v>
@@ -31989,7 +31989,7 @@
         <v>1611</v>
       </c>
       <c r="D400" t="n">
-        <v>0.3276680786980535</v>
+        <v>3.470982992543798</v>
       </c>
       <c r="E400" t="n">
         <v>4</v>
@@ -32068,7 +32068,7 @@
         <v>2822</v>
       </c>
       <c r="D401" t="n">
-        <v>0.3645988817826096</v>
+        <v>3.085125987806548</v>
       </c>
       <c r="E401" t="n">
         <v>8</v>
@@ -32147,7 +32147,7 @@
         <v>3414</v>
       </c>
       <c r="D402" t="n">
-        <v>0.558190402797457</v>
+        <v>1.955055761954757</v>
       </c>
       <c r="E402" t="n">
         <v>10</v>
@@ -32226,7 +32226,7 @@
         <v>6729</v>
       </c>
       <c r="D403" t="n">
-        <v>0.3392818275939462</v>
+        <v>3.339518224677005</v>
       </c>
       <c r="E403" t="n">
         <v>21</v>
@@ -32305,7 +32305,7 @@
         <v>8595</v>
       </c>
       <c r="D404" t="n">
-        <v>0.3645589067308625</v>
+        <v>3.085496782247195</v>
       </c>
       <c r="E404" t="n">
         <v>27</v>
@@ -32384,7 +32384,7 @@
         <v>8883</v>
       </c>
       <c r="D405" t="n">
-        <v>0.399295487029304</v>
+        <v>2.794049077307586</v>
       </c>
       <c r="E405" t="n">
         <v>28</v>
@@ -32463,7 +32463,7 @@
         <v>10051</v>
       </c>
       <c r="D406" t="n">
-        <v>0.3650302945890736</v>
+        <v>3.08113008495807</v>
       </c>
       <c r="E406" t="n">
         <v>32</v>
@@ -32542,7 +32542,7 @@
         <v>10323</v>
       </c>
       <c r="D407" t="n">
-        <v>0.336139988467012</v>
+        <v>3.37407981315038</v>
       </c>
       <c r="E407" t="n">
         <v>33</v>
@@ -32621,7 +32621,7 @@
         <v>12186</v>
       </c>
       <c r="D408" t="n">
-        <v>0.3062312642925792</v>
+        <v>3.74330054588061</v>
       </c>
       <c r="E408" t="n">
         <v>39</v>
@@ -32700,7 +32700,7 @@
         <v>13675</v>
       </c>
       <c r="D409" t="n">
-        <v>0.4638299906279312</v>
+        <v>2.378172712285283</v>
       </c>
       <c r="E409" t="n">
         <v>44</v>
@@ -32779,7 +32779,7 @@
         <v>14231</v>
       </c>
       <c r="D410" t="n">
-        <v>0.3142596969006559</v>
+        <v>3.636402074940601</v>
       </c>
       <c r="E410" t="n">
         <v>46</v>
@@ -32858,7 +32858,7 @@
         <v>4680</v>
       </c>
       <c r="D411" t="n">
-        <v>0.36653885373965</v>
+        <v>3.067239221929911</v>
       </c>
       <c r="E411" t="n">
         <v>14</v>
@@ -32937,7 +32937,7 @@
         <v>9151</v>
       </c>
       <c r="D412" t="n">
-        <v>0.3892622402552458</v>
+        <v>2.872346627862706</v>
       </c>
       <c r="E412" t="n">
         <v>29</v>
@@ -33016,7 +33016,7 @@
         <v>10062</v>
       </c>
       <c r="D413" t="n">
-        <v>0.3172500942194747</v>
+        <v>3.598143906983732</v>
       </c>
       <c r="E413" t="n">
         <v>32</v>
@@ -33095,7 +33095,7 @@
         <v>12803</v>
       </c>
       <c r="D414" t="n">
-        <v>0.2956515167613319</v>
+        <v>3.894258086847473</v>
       </c>
       <c r="E414" t="n">
         <v>41</v>
@@ -33174,7 +33174,7 @@
         <v>13339</v>
       </c>
       <c r="D415" t="n">
-        <v>0.3655986229013974</v>
+        <v>3.075881978780667</v>
       </c>
       <c r="E415" t="n">
         <v>43</v>
@@ -33253,7 +33253,7 @@
         <v>793</v>
       </c>
       <c r="D416" t="n">
-        <v>0.3551359742406776</v>
+        <v>3.175490737159705</v>
       </c>
       <c r="E416" t="n">
         <v>1</v>
@@ -33332,7 +33332,7 @@
         <v>2832</v>
       </c>
       <c r="D417" t="n">
-        <v>0.3587071374049876</v>
+        <v>3.140766141521969</v>
       </c>
       <c r="E417" t="n">
         <v>8</v>
@@ -33411,7 +33411,7 @@
         <v>6537</v>
       </c>
       <c r="D418" t="n">
-        <v>0.3339102554859219</v>
+        <v>3.399049826423397</v>
       </c>
       <c r="E418" t="n">
         <v>20</v>
@@ -33490,7 +33490,7 @@
         <v>7979</v>
       </c>
       <c r="D419" t="n">
-        <v>0.3296153004835129</v>
+        <v>3.448215701319147</v>
       </c>
       <c r="E419" t="n">
         <v>25</v>
@@ -33569,7 +33569,7 @@
         <v>9214</v>
       </c>
       <c r="D420" t="n">
-        <v>0.3512230765991133</v>
+        <v>3.214441023577358</v>
       </c>
       <c r="E420" t="n">
         <v>29</v>
@@ -33648,7 +33648,7 @@
         <v>9513</v>
       </c>
       <c r="D421" t="n">
-        <v>0.3792013402895627</v>
+        <v>2.955454393997075</v>
       </c>
       <c r="E421" t="n">
         <v>30</v>
@@ -33727,7 +33727,7 @@
         <v>9699</v>
       </c>
       <c r="D422" t="n">
-        <v>0.308397544684498</v>
+        <v>3.713836233515281</v>
       </c>
       <c r="E422" t="n">
         <v>31</v>
@@ -33806,7 +33806,7 @@
         <v>12779</v>
       </c>
       <c r="D423" t="n">
-        <v>0.3067426743276312</v>
+        <v>3.736302197452945</v>
       </c>
       <c r="E423" t="n">
         <v>41</v>
@@ -33885,7 +33885,7 @@
         <v>4663</v>
       </c>
       <c r="D424" t="n">
-        <v>0.3109411032904045</v>
+        <v>3.679832672748682</v>
       </c>
       <c r="E424" t="n">
         <v>14</v>
@@ -33964,7 +33964,7 @@
         <v>5893</v>
       </c>
       <c r="D425" t="n">
-        <v>0.3074995913447221</v>
+        <v>3.725992583950856</v>
       </c>
       <c r="E425" t="n">
         <v>18</v>
@@ -34043,7 +34043,7 @@
         <v>7633</v>
       </c>
       <c r="D426" t="n">
-        <v>0.295460999134622</v>
+        <v>3.897089256244042</v>
       </c>
       <c r="E426" t="n">
         <v>24</v>
@@ -34122,7 +34122,7 @@
         <v>8889</v>
       </c>
       <c r="D427" t="n">
-        <v>0.3695868605930082</v>
+        <v>3.039556224933858</v>
       </c>
       <c r="E427" t="n">
         <v>28</v>
@@ -34201,7 +34201,7 @@
         <v>9285</v>
       </c>
       <c r="D428" t="n">
-        <v>0.3636658751601717</v>
+        <v>3.093803800483168</v>
       </c>
       <c r="E428" t="n">
         <v>29</v>
@@ -34280,7 +34280,7 @@
         <v>10723</v>
       </c>
       <c r="D429" t="n">
-        <v>0.4912790903640944</v>
+        <v>2.237007627072757</v>
       </c>
       <c r="E429" t="n">
         <v>34</v>
@@ -34359,7 +34359,7 @@
         <v>11270</v>
       </c>
       <c r="D430" t="n">
-        <v>0.3070893355882704</v>
+        <v>3.731573345398876</v>
       </c>
       <c r="E430" t="n">
         <v>36</v>
@@ -34438,7 +34438,7 @@
         <v>13951</v>
       </c>
       <c r="D431" t="n">
-        <v>0.2986562864935926</v>
+        <v>3.850148810182509</v>
       </c>
       <c r="E431" t="n">
         <v>45</v>
@@ -34517,7 +34517,7 @@
         <v>247</v>
       </c>
       <c r="D432" t="n">
-        <v>0.32323271205749</v>
+        <v>3.523993770928232</v>
       </c>
       <c r="E432" t="n">
         <v>0</v>
@@ -34596,7 +34596,7 @@
         <v>1906</v>
       </c>
       <c r="D433" t="n">
-        <v>0.2910028649991903</v>
+        <v>3.964545785967994</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -34675,7 +34675,7 @@
         <v>2233</v>
       </c>
       <c r="D434" t="n">
-        <v>0.3016507913305281</v>
+        <v>3.807182259873173</v>
       </c>
       <c r="E434" t="n">
         <v>6</v>
@@ -34754,7 +34754,7 @@
         <v>2817</v>
       </c>
       <c r="D435" t="n">
-        <v>0.2804014065881225</v>
+        <v>4.134834478700618</v>
       </c>
       <c r="E435" t="n">
         <v>8</v>
@@ -34833,7 +34833,7 @@
         <v>4739</v>
       </c>
       <c r="D436" t="n">
-        <v>0.2926376128225101</v>
+        <v>3.939538301403113</v>
       </c>
       <c r="E436" t="n">
         <v>14</v>
@@ -34912,7 +34912,7 @@
         <v>10082</v>
       </c>
       <c r="D437" t="n">
-        <v>0.3210730368759846</v>
+        <v>3.55040262081191</v>
       </c>
       <c r="E437" t="n">
         <v>32</v>
@@ -34991,7 +34991,7 @@
         <v>12177</v>
       </c>
       <c r="D438" t="n">
-        <v>0.3142655238002425</v>
+        <v>3.63632672845089</v>
       </c>
       <c r="E438" t="n">
         <v>39</v>
@@ -35070,7 +35070,7 @@
         <v>12727</v>
       </c>
       <c r="D439" t="n">
-        <v>0.3282624145526019</v>
+        <v>3.464001756469284</v>
       </c>
       <c r="E439" t="n">
         <v>41</v>
@@ -35149,7 +35149,7 @@
         <v>13933</v>
       </c>
       <c r="D440" t="n">
-        <v>0.3509756048062459</v>
+        <v>3.216936959295302</v>
       </c>
       <c r="E440" t="n">
         <v>45</v>
@@ -35228,7 +35228,7 @@
         <v>1322</v>
       </c>
       <c r="D441" t="n">
-        <v>0.2912790915788595</v>
+        <v>3.960297750783029</v>
       </c>
       <c r="E441" t="n">
         <v>3</v>
@@ -35307,7 +35307,7 @@
         <v>5592</v>
       </c>
       <c r="D442" t="n">
-        <v>0.3047336086911126</v>
+        <v>3.763948203283807</v>
       </c>
       <c r="E442" t="n">
         <v>17</v>
@@ -35386,7 +35386,7 @@
         <v>6128</v>
       </c>
       <c r="D443" t="n">
-        <v>0.3390977175972177</v>
+        <v>3.341523762815276</v>
       </c>
       <c r="E443" t="n">
         <v>19</v>
@@ -35465,7 +35465,7 @@
         <v>6413</v>
       </c>
       <c r="D444" t="n">
-        <v>0.345309945419796</v>
+        <v>3.275171064435987</v>
       </c>
       <c r="E444" t="n">
         <v>20</v>
@@ -35544,7 +35544,7 @@
         <v>9107</v>
       </c>
       <c r="D445" t="n">
-        <v>0.3381761423050182</v>
+        <v>3.351599332835025</v>
       </c>
       <c r="E445" t="n">
         <v>29</v>
@@ -35623,7 +35623,7 @@
         <v>10317</v>
       </c>
       <c r="D446" t="n">
-        <v>0.2893356460359595</v>
+        <v>3.990382174886329</v>
       </c>
       <c r="E446" t="n">
         <v>33</v>
@@ -35702,7 +35702,7 @@
         <v>11925</v>
       </c>
       <c r="D447" t="n">
-        <v>0.4959731735454222</v>
+        <v>2.214553209252052</v>
       </c>
       <c r="E447" t="n">
         <v>38</v>
@@ -35781,7 +35781,7 @@
         <v>233</v>
       </c>
       <c r="D448" t="n">
-        <v>0.2895602660410271</v>
+        <v>3.986881516951587</v>
       </c>
       <c r="E448" t="n">
         <v>0</v>
@@ -35860,7 +35860,7 @@
         <v>3189</v>
       </c>
       <c r="D449" t="n">
-        <v>0.3346134063555891</v>
+        <v>3.391135250911496</v>
       </c>
       <c r="E449" t="n">
         <v>9</v>
@@ -35939,7 +35939,7 @@
         <v>4008</v>
       </c>
       <c r="D450" t="n">
-        <v>0.3063949818291497</v>
+        <v>3.741057287894199</v>
       </c>
       <c r="E450" t="n">
         <v>12</v>
@@ -36018,7 +36018,7 @@
         <v>6790</v>
       </c>
       <c r="D451" t="n">
-        <v>0.3953942520628933</v>
+        <v>2.823974394132911</v>
       </c>
       <c r="E451" t="n">
         <v>21</v>
@@ -36097,7 +36097,7 @@
         <v>7430</v>
       </c>
       <c r="D452" t="n">
-        <v>0.3907642592763353</v>
+        <v>2.860343430542004</v>
       </c>
       <c r="E452" t="n">
         <v>23</v>
@@ -36176,7 +36176,7 @@
         <v>7690</v>
       </c>
       <c r="D453" t="n">
-        <v>0.3117364758620428</v>
+        <v>3.669328404745392</v>
       </c>
       <c r="E453" t="n">
         <v>24</v>
@@ -36255,7 +36255,7 @@
         <v>3766</v>
       </c>
       <c r="D454" t="n">
-        <v>0.3533969942702998</v>
+        <v>3.192682629595509</v>
       </c>
       <c r="E454" t="n">
         <v>11</v>
@@ -36334,7 +36334,7 @@
         <v>6105</v>
       </c>
       <c r="D455" t="n">
-        <v>0.3543220654335984</v>
+        <v>3.183513826967404</v>
       </c>
       <c r="E455" t="n">
         <v>19</v>
@@ -36413,7 +36413,7 @@
         <v>6448</v>
       </c>
       <c r="D456" t="n">
-        <v>0.3340723397723853</v>
+        <v>3.397222116964294</v>
       </c>
       <c r="E456" t="n">
         <v>20</v>
@@ -36492,7 +36492,7 @@
         <v>6788</v>
       </c>
       <c r="D457" t="n">
-        <v>0.3319406779901386</v>
+        <v>3.421419229380056</v>
       </c>
       <c r="E457" t="n">
         <v>21</v>
@@ -36571,7 +36571,7 @@
         <v>9787</v>
       </c>
       <c r="D458" t="n">
-        <v>0.3111696616194784</v>
+        <v>3.676807951847713</v>
       </c>
       <c r="E458" t="n">
         <v>31</v>
@@ -36650,7 +36650,7 @@
         <v>10074</v>
       </c>
       <c r="D459" t="n">
-        <v>0.3710240516579441</v>
+        <v>3.0266778384308</v>
       </c>
       <c r="E459" t="n">
         <v>32</v>
@@ -36729,7 +36729,7 @@
         <v>13421</v>
       </c>
       <c r="D460" t="n">
-        <v>0.3083850088990856</v>
+        <v>3.714005389718727</v>
       </c>
       <c r="E460" t="n">
         <v>43</v>
@@ -36808,7 +36808,7 @@
         <v>13662</v>
       </c>
       <c r="D461" t="n">
-        <v>0.3141901439391326</v>
+        <v>3.637301694110577</v>
       </c>
       <c r="E461" t="n">
         <v>44</v>
@@ -36887,7 +36887,7 @@
         <v>217</v>
       </c>
       <c r="D462" t="n">
-        <v>0.4800216150130645</v>
+        <v>2.29279220440713</v>
       </c>
       <c r="E462" t="n">
         <v>0</v>
@@ -36966,7 +36966,7 @@
         <v>1015</v>
       </c>
       <c r="D463" t="n">
-        <v>0.3160241245430669</v>
+        <v>3.613729799587825</v>
       </c>
       <c r="E463" t="n">
         <v>2</v>
@@ -37045,7 +37045,7 @@
         <v>2256</v>
       </c>
       <c r="D464" t="n">
-        <v>0.2962349999782659</v>
+        <v>3.88561305971328</v>
       </c>
       <c r="E464" t="n">
         <v>6</v>
@@ -37124,7 +37124,7 @@
         <v>5517</v>
       </c>
       <c r="D465" t="n">
-        <v>0.3377464652351169</v>
+        <v>3.356318010048762</v>
       </c>
       <c r="E465" t="n">
         <v>17</v>
@@ -37203,7 +37203,7 @@
         <v>12725</v>
       </c>
       <c r="D466" t="n">
-        <v>0.3197883306059512</v>
+        <v>3.566302757931518</v>
       </c>
       <c r="E466" t="n">
         <v>41</v>
@@ -37282,7 +37282,7 @@
         <v>13676</v>
       </c>
       <c r="D467" t="n">
-        <v>0.4008629867948712</v>
+        <v>2.782205339136301</v>
       </c>
       <c r="E467" t="n">
         <v>44</v>
@@ -37361,7 +37361,7 @@
         <v>824</v>
       </c>
       <c r="D468" t="n">
-        <v>0.383382669387057</v>
+        <v>2.920330362729936</v>
       </c>
       <c r="E468" t="n">
         <v>1</v>
@@ -37440,7 +37440,7 @@
         <v>2021</v>
       </c>
       <c r="D469" t="n">
-        <v>0.5043589571329635</v>
+        <v>2.175559148344364</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -37519,7 +37519,7 @@
         <v>2346</v>
       </c>
       <c r="D470" t="n">
-        <v>0.486230852254561</v>
+        <v>2.261678489180536</v>
       </c>
       <c r="E470" t="n">
         <v>6</v>
@@ -37598,7 +37598,7 @@
         <v>2624</v>
       </c>
       <c r="D471" t="n">
-        <v>0.3800243386180821</v>
+        <v>2.948473586174662</v>
       </c>
       <c r="E471" t="n">
         <v>7</v>
@@ -37677,7 +37677,7 @@
         <v>4328</v>
       </c>
       <c r="D472" t="n">
-        <v>0.3450414246948953</v>
+        <v>3.277984001953792</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -37756,7 +37756,7 @@
         <v>5244</v>
       </c>
       <c r="D473" t="n">
-        <v>0.4057076117548385</v>
+        <v>2.746234802484577</v>
       </c>
       <c r="E473" t="n">
         <v>16</v>
@@ -37835,7 +37835,7 @@
         <v>5578</v>
       </c>
       <c r="D474" t="n">
-        <v>0.3211614587206937</v>
+        <v>3.549313536094107</v>
       </c>
       <c r="E474" t="n">
         <v>17</v>
@@ -37914,7 +37914,7 @@
         <v>9722</v>
       </c>
       <c r="D475" t="n">
-        <v>0.3063946006095501</v>
+        <v>3.741062508212683</v>
       </c>
       <c r="E475" t="n">
         <v>31</v>
@@ -37993,7 +37993,7 @@
         <v>11601</v>
       </c>
       <c r="D476" t="n">
-        <v>0.2868401218388143</v>
+        <v>4.02969586348298</v>
       </c>
       <c r="E476" t="n">
         <v>37</v>
@@ -38072,7 +38072,7 @@
         <v>14214</v>
       </c>
       <c r="D477" t="n">
-        <v>0.2973268796175267</v>
+        <v>3.869539150113275</v>
       </c>
       <c r="E477" t="n">
         <v>46</v>
